--- a/dados_final/imoveis_1500k.xlsx
+++ b/dados_final/imoveis_1500k.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D356"/>
+  <dimension ref="A1:F355"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,16 @@
           <t>distancia_metro_km</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>metragem</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>vagas</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -470,6 +480,12 @@
       <c r="D2" t="n">
         <v>0.1353687369268037</v>
       </c>
+      <c r="E2" t="n">
+        <v>58</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -486,6 +502,12 @@
       <c r="D3" t="n">
         <v>0.269</v>
       </c>
+      <c r="E3" t="n">
+        <v>61</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -502,6 +524,12 @@
       <c r="D4" t="n">
         <v>1.329</v>
       </c>
+      <c r="E4" t="n">
+        <v>53</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -518,6 +546,12 @@
       <c r="D5" t="n">
         <v>1.497</v>
       </c>
+      <c r="E5" t="n">
+        <v>89</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -534,6 +568,12 @@
       <c r="D6" t="n">
         <v>1.52</v>
       </c>
+      <c r="E6" t="n">
+        <v>61</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -550,6 +590,12 @@
       <c r="D7" t="n">
         <v>0.316</v>
       </c>
+      <c r="E7" t="n">
+        <v>71</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -566,6 +612,12 @@
       <c r="D8" t="n">
         <v>0.367</v>
       </c>
+      <c r="E8" t="n">
+        <v>64</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -582,6 +634,12 @@
       <c r="D9" t="n">
         <v>1.513</v>
       </c>
+      <c r="E9" t="n">
+        <v>64</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -598,6 +656,12 @@
       <c r="D10" t="n">
         <v>1.006</v>
       </c>
+      <c r="E10" t="n">
+        <v>64</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -614,6 +678,12 @@
       <c r="D11" t="n">
         <v>0.6184622468080472</v>
       </c>
+      <c r="E11" t="n">
+        <v>84</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -630,6 +700,12 @@
       <c r="D12" t="n">
         <v>0.351</v>
       </c>
+      <c r="E12" t="n">
+        <v>71</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -646,6 +722,12 @@
       <c r="D13" t="n">
         <v>1.453</v>
       </c>
+      <c r="E13" t="n">
+        <v>103</v>
+      </c>
+      <c r="F13" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -662,6 +744,12 @@
       <c r="D14" t="n">
         <v>2</v>
       </c>
+      <c r="E14" t="n">
+        <v>70</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -678,6 +766,12 @@
       <c r="D15" t="n">
         <v>1.982</v>
       </c>
+      <c r="E15" t="n">
+        <v>53</v>
+      </c>
+      <c r="F15" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -694,6 +788,12 @@
       <c r="D16" t="n">
         <v>0.1</v>
       </c>
+      <c r="E16" t="n">
+        <v>53</v>
+      </c>
+      <c r="F16" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -710,6 +810,12 @@
       <c r="D17" t="n">
         <v>0.872</v>
       </c>
+      <c r="E17" t="n">
+        <v>69</v>
+      </c>
+      <c r="F17" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -726,6 +832,12 @@
       <c r="D18" t="n">
         <v>1.801</v>
       </c>
+      <c r="E18" t="n">
+        <v>53</v>
+      </c>
+      <c r="F18" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -742,6 +854,12 @@
       <c r="D19" t="n">
         <v>0.1353687369268037</v>
       </c>
+      <c r="E19" t="n">
+        <v>58</v>
+      </c>
+      <c r="F19" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -758,6 +876,12 @@
       <c r="D20" t="n">
         <v>1.624</v>
       </c>
+      <c r="E20" t="n">
+        <v>103</v>
+      </c>
+      <c r="F20" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -774,6 +898,12 @@
       <c r="D21" t="n">
         <v>0.623</v>
       </c>
+      <c r="E21" t="n">
+        <v>61</v>
+      </c>
+      <c r="F21" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -790,6 +920,12 @@
       <c r="D22" t="n">
         <v>1.036610664272785</v>
       </c>
+      <c r="E22" t="n">
+        <v>66</v>
+      </c>
+      <c r="F22" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -806,6 +942,12 @@
       <c r="D23" t="n">
         <v>2</v>
       </c>
+      <c r="E23" t="n">
+        <v>61</v>
+      </c>
+      <c r="F23" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -822,6 +964,12 @@
       <c r="D24" t="n">
         <v>0.742</v>
       </c>
+      <c r="E24" t="n">
+        <v>61</v>
+      </c>
+      <c r="F24" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -838,6 +986,12 @@
       <c r="D25" t="n">
         <v>0.1</v>
       </c>
+      <c r="E25" t="n">
+        <v>61</v>
+      </c>
+      <c r="F25" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -854,6 +1008,12 @@
       <c r="D26" t="n">
         <v>1.249</v>
       </c>
+      <c r="E26" t="n">
+        <v>58</v>
+      </c>
+      <c r="F26" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -870,6 +1030,12 @@
       <c r="D27" t="n">
         <v>0.6184622468080472</v>
       </c>
+      <c r="E27" t="n">
+        <v>84</v>
+      </c>
+      <c r="F27" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -886,6 +1052,12 @@
       <c r="D28" t="n">
         <v>1.036610664272785</v>
       </c>
+      <c r="E28" t="n">
+        <v>66</v>
+      </c>
+      <c r="F28" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -902,6 +1074,12 @@
       <c r="D29" t="n">
         <v>1.036610664272785</v>
       </c>
+      <c r="E29" t="n">
+        <v>66</v>
+      </c>
+      <c r="F29" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -918,6 +1096,12 @@
       <c r="D30" t="n">
         <v>1.546</v>
       </c>
+      <c r="E30" t="n">
+        <v>58</v>
+      </c>
+      <c r="F30" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -934,6 +1118,12 @@
       <c r="D31" t="n">
         <v>1.647</v>
       </c>
+      <c r="E31" t="n">
+        <v>75</v>
+      </c>
+      <c r="F31" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -950,6 +1140,12 @@
       <c r="D32" t="n">
         <v>2</v>
       </c>
+      <c r="E32" t="n">
+        <v>75</v>
+      </c>
+      <c r="F32" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -966,6 +1162,12 @@
       <c r="D33" t="n">
         <v>0.487</v>
       </c>
+      <c r="E33" t="n">
+        <v>64</v>
+      </c>
+      <c r="F33" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -982,6 +1184,12 @@
       <c r="D34" t="n">
         <v>0.43</v>
       </c>
+      <c r="E34" t="n">
+        <v>59</v>
+      </c>
+      <c r="F34" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -998,6 +1206,12 @@
       <c r="D35" t="n">
         <v>1.036610664272785</v>
       </c>
+      <c r="E35" t="n">
+        <v>66</v>
+      </c>
+      <c r="F35" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1014,6 +1228,12 @@
       <c r="D36" t="n">
         <v>0.1</v>
       </c>
+      <c r="E36" t="n">
+        <v>64</v>
+      </c>
+      <c r="F36" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1030,6 +1250,12 @@
       <c r="D37" t="n">
         <v>1.989</v>
       </c>
+      <c r="E37" t="n">
+        <v>75</v>
+      </c>
+      <c r="F37" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1046,6 +1272,12 @@
       <c r="D38" t="n">
         <v>0.3793745008409976</v>
       </c>
+      <c r="E38" t="n">
+        <v>49</v>
+      </c>
+      <c r="F38" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1062,6 +1294,12 @@
       <c r="D39" t="n">
         <v>0.6184622468080472</v>
       </c>
+      <c r="E39" t="n">
+        <v>84</v>
+      </c>
+      <c r="F39" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1078,6 +1316,12 @@
       <c r="D40" t="n">
         <v>1.805</v>
       </c>
+      <c r="E40" t="n">
+        <v>61</v>
+      </c>
+      <c r="F40" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1094,6 +1338,12 @@
       <c r="D41" t="n">
         <v>0.2664786477687058</v>
       </c>
+      <c r="E41" t="n">
+        <v>64</v>
+      </c>
+      <c r="F41" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1110,6 +1360,12 @@
       <c r="D42" t="n">
         <v>0.602</v>
       </c>
+      <c r="E42" t="n">
+        <v>64</v>
+      </c>
+      <c r="F42" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1126,6 +1382,12 @@
       <c r="D43" t="n">
         <v>1.036610664272785</v>
       </c>
+      <c r="E43" t="n">
+        <v>77</v>
+      </c>
+      <c r="F43" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1142,6 +1404,12 @@
       <c r="D44" t="n">
         <v>2</v>
       </c>
+      <c r="E44" t="n">
+        <v>64</v>
+      </c>
+      <c r="F44" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1158,6 +1426,12 @@
       <c r="D45" t="n">
         <v>1.036610664272785</v>
       </c>
+      <c r="E45" t="n">
+        <v>66</v>
+      </c>
+      <c r="F45" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1174,6 +1448,12 @@
       <c r="D46" t="n">
         <v>0.649</v>
       </c>
+      <c r="E46" t="n">
+        <v>64</v>
+      </c>
+      <c r="F46" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1190,6 +1470,12 @@
       <c r="D47" t="n">
         <v>0.116</v>
       </c>
+      <c r="E47" t="n">
+        <v>61</v>
+      </c>
+      <c r="F47" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1206,6 +1492,12 @@
       <c r="D48" t="n">
         <v>0.1</v>
       </c>
+      <c r="E48" t="n">
+        <v>64</v>
+      </c>
+      <c r="F48" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1222,6 +1514,12 @@
       <c r="D49" t="n">
         <v>1.252</v>
       </c>
+      <c r="E49" t="n">
+        <v>61</v>
+      </c>
+      <c r="F49" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1238,6 +1536,12 @@
       <c r="D50" t="n">
         <v>1.236</v>
       </c>
+      <c r="E50" t="n">
+        <v>58</v>
+      </c>
+      <c r="F50" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1254,6 +1558,12 @@
       <c r="D51" t="n">
         <v>0.909</v>
       </c>
+      <c r="E51" t="n">
+        <v>126</v>
+      </c>
+      <c r="F51" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1270,6 +1580,12 @@
       <c r="D52" t="n">
         <v>0.737</v>
       </c>
+      <c r="E52" t="n">
+        <v>70</v>
+      </c>
+      <c r="F52" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1286,6 +1602,12 @@
       <c r="D53" t="n">
         <v>0.6889999999999999</v>
       </c>
+      <c r="E53" t="n">
+        <v>63</v>
+      </c>
+      <c r="F53" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1302,6 +1624,12 @@
       <c r="D54" t="n">
         <v>0.2711947780478455</v>
       </c>
+      <c r="E54" t="n">
+        <v>57</v>
+      </c>
+      <c r="F54" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1318,6 +1646,12 @@
       <c r="D55" t="n">
         <v>0.92</v>
       </c>
+      <c r="E55" t="n">
+        <v>63</v>
+      </c>
+      <c r="F55" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1334,6 +1668,12 @@
       <c r="D56" t="n">
         <v>2</v>
       </c>
+      <c r="E56" t="n">
+        <v>69</v>
+      </c>
+      <c r="F56" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1350,6 +1690,12 @@
       <c r="D57" t="n">
         <v>1.806</v>
       </c>
+      <c r="E57" t="n">
+        <v>86</v>
+      </c>
+      <c r="F57" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1366,6 +1712,12 @@
       <c r="D58" t="n">
         <v>2</v>
       </c>
+      <c r="E58" t="n">
+        <v>89</v>
+      </c>
+      <c r="F58" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1382,6 +1734,12 @@
       <c r="D59" t="n">
         <v>1.381</v>
       </c>
+      <c r="E59" t="n">
+        <v>71</v>
+      </c>
+      <c r="F59" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1398,6 +1756,12 @@
       <c r="D60" t="n">
         <v>0.6184622468080472</v>
       </c>
+      <c r="E60" t="n">
+        <v>84</v>
+      </c>
+      <c r="F60" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1414,6 +1778,12 @@
       <c r="D61" t="n">
         <v>1.225</v>
       </c>
+      <c r="E61" t="n">
+        <v>71</v>
+      </c>
+      <c r="F61" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1430,6 +1800,12 @@
       <c r="D62" t="n">
         <v>1.129</v>
       </c>
+      <c r="E62" t="n">
+        <v>52</v>
+      </c>
+      <c r="F62" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1446,6 +1822,12 @@
       <c r="D63" t="n">
         <v>0.6184622468080472</v>
       </c>
+      <c r="E63" t="n">
+        <v>84</v>
+      </c>
+      <c r="F63" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -1462,6 +1844,12 @@
       <c r="D64" t="n">
         <v>1.675</v>
       </c>
+      <c r="E64" t="n">
+        <v>54</v>
+      </c>
+      <c r="F64" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -1478,6 +1866,12 @@
       <c r="D65" t="n">
         <v>1.337</v>
       </c>
+      <c r="E65" t="n">
+        <v>64</v>
+      </c>
+      <c r="F65" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -1494,6 +1888,12 @@
       <c r="D66" t="n">
         <v>1.036610664272785</v>
       </c>
+      <c r="E66" t="n">
+        <v>66</v>
+      </c>
+      <c r="F66" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -1510,6 +1910,12 @@
       <c r="D67" t="n">
         <v>1.036610664272785</v>
       </c>
+      <c r="E67" t="n">
+        <v>60</v>
+      </c>
+      <c r="F67" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -1526,6 +1932,12 @@
       <c r="D68" t="n">
         <v>1.96</v>
       </c>
+      <c r="E68" t="n">
+        <v>64</v>
+      </c>
+      <c r="F68" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -1542,6 +1954,12 @@
       <c r="D69" t="n">
         <v>1.854</v>
       </c>
+      <c r="E69" t="n">
+        <v>53</v>
+      </c>
+      <c r="F69" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -1558,6 +1976,12 @@
       <c r="D70" t="n">
         <v>2</v>
       </c>
+      <c r="E70" t="n">
+        <v>70</v>
+      </c>
+      <c r="F70" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -1574,6 +1998,12 @@
       <c r="D71" t="n">
         <v>1.754</v>
       </c>
+      <c r="E71" t="n">
+        <v>64</v>
+      </c>
+      <c r="F71" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -1590,6 +2020,12 @@
       <c r="D72" t="n">
         <v>1.036610664272785</v>
       </c>
+      <c r="E72" t="n">
+        <v>77</v>
+      </c>
+      <c r="F72" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -1606,6 +2042,12 @@
       <c r="D73" t="n">
         <v>1.779</v>
       </c>
+      <c r="E73" t="n">
+        <v>53</v>
+      </c>
+      <c r="F73" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -1622,6 +2064,12 @@
       <c r="D74" t="n">
         <v>1.725</v>
       </c>
+      <c r="E74" t="n">
+        <v>68</v>
+      </c>
+      <c r="F74" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -1638,6 +2086,12 @@
       <c r="D75" t="n">
         <v>1.19</v>
       </c>
+      <c r="E75" t="n">
+        <v>71</v>
+      </c>
+      <c r="F75" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -1654,6 +2108,12 @@
       <c r="D76" t="n">
         <v>0.517</v>
       </c>
+      <c r="E76" t="n">
+        <v>59</v>
+      </c>
+      <c r="F76" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -1670,6 +2130,12 @@
       <c r="D77" t="n">
         <v>1.578</v>
       </c>
+      <c r="E77" t="n">
+        <v>141</v>
+      </c>
+      <c r="F77" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -1686,6 +2152,12 @@
       <c r="D78" t="n">
         <v>1.748</v>
       </c>
+      <c r="E78" t="n">
+        <v>69</v>
+      </c>
+      <c r="F78" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -1702,6 +2174,12 @@
       <c r="D79" t="n">
         <v>0.1</v>
       </c>
+      <c r="E79" t="n">
+        <v>64</v>
+      </c>
+      <c r="F79" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -1718,6 +2196,12 @@
       <c r="D80" t="n">
         <v>2</v>
       </c>
+      <c r="E80" t="n">
+        <v>90</v>
+      </c>
+      <c r="F80" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -1734,6 +2218,12 @@
       <c r="D81" t="n">
         <v>0.6184622468080472</v>
       </c>
+      <c r="E81" t="n">
+        <v>84</v>
+      </c>
+      <c r="F81" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -1750,6 +2240,12 @@
       <c r="D82" t="n">
         <v>0.1353687369268037</v>
       </c>
+      <c r="E82" t="n">
+        <v>58</v>
+      </c>
+      <c r="F82" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -1766,6 +2262,12 @@
       <c r="D83" t="n">
         <v>0.8110000000000001</v>
       </c>
+      <c r="E83" t="n">
+        <v>70</v>
+      </c>
+      <c r="F83" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -1782,6 +2284,12 @@
       <c r="D84" t="n">
         <v>0.6184622468080472</v>
       </c>
+      <c r="E84" t="n">
+        <v>84</v>
+      </c>
+      <c r="F84" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -1798,6 +2306,12 @@
       <c r="D85" t="n">
         <v>1.012</v>
       </c>
+      <c r="E85" t="n">
+        <v>61</v>
+      </c>
+      <c r="F85" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -1814,6 +2328,12 @@
       <c r="D86" t="n">
         <v>0.474</v>
       </c>
+      <c r="E86" t="n">
+        <v>64</v>
+      </c>
+      <c r="F86" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -1830,6 +2350,12 @@
       <c r="D87" t="n">
         <v>1.036610664272785</v>
       </c>
+      <c r="E87" t="n">
+        <v>66</v>
+      </c>
+      <c r="F87" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -1846,6 +2372,12 @@
       <c r="D88" t="n">
         <v>0.6184622468080472</v>
       </c>
+      <c r="E88" t="n">
+        <v>84</v>
+      </c>
+      <c r="F88" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -1862,6 +2394,12 @@
       <c r="D89" t="n">
         <v>2</v>
       </c>
+      <c r="E89" t="n">
+        <v>69</v>
+      </c>
+      <c r="F89" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -1878,6 +2416,12 @@
       <c r="D90" t="n">
         <v>0.1</v>
       </c>
+      <c r="E90" t="n">
+        <v>110</v>
+      </c>
+      <c r="F90" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -1894,6 +2438,12 @@
       <c r="D91" t="n">
         <v>1.036</v>
       </c>
+      <c r="E91" t="n">
+        <v>47</v>
+      </c>
+      <c r="F91" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -1910,6 +2460,12 @@
       <c r="D92" t="n">
         <v>1.166</v>
       </c>
+      <c r="E92" t="n">
+        <v>64</v>
+      </c>
+      <c r="F92" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -1926,6 +2482,12 @@
       <c r="D93" t="n">
         <v>0.413</v>
       </c>
+      <c r="E93" t="n">
+        <v>58</v>
+      </c>
+      <c r="F93" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -1942,6 +2504,12 @@
       <c r="D94" t="n">
         <v>0.6184622468080472</v>
       </c>
+      <c r="E94" t="n">
+        <v>84</v>
+      </c>
+      <c r="F94" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -1958,6 +2526,12 @@
       <c r="D95" t="n">
         <v>1.103</v>
       </c>
+      <c r="E95" t="n">
+        <v>64</v>
+      </c>
+      <c r="F95" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -1974,6 +2548,12 @@
       <c r="D96" t="n">
         <v>0.6184622468080472</v>
       </c>
+      <c r="E96" t="n">
+        <v>84</v>
+      </c>
+      <c r="F96" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -1990,6 +2570,12 @@
       <c r="D97" t="n">
         <v>1.036610664272785</v>
       </c>
+      <c r="E97" t="n">
+        <v>70</v>
+      </c>
+      <c r="F97" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -2006,6 +2592,12 @@
       <c r="D98" t="n">
         <v>0.598</v>
       </c>
+      <c r="E98" t="n">
+        <v>64</v>
+      </c>
+      <c r="F98" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -2022,6 +2614,12 @@
       <c r="D99" t="n">
         <v>0.3357747825600471</v>
       </c>
+      <c r="E99" t="n">
+        <v>82</v>
+      </c>
+      <c r="F99" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -2038,6 +2636,12 @@
       <c r="D100" t="n">
         <v>1.824</v>
       </c>
+      <c r="E100" t="n">
+        <v>53</v>
+      </c>
+      <c r="F100" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -2054,6 +2658,12 @@
       <c r="D101" t="n">
         <v>0.483</v>
       </c>
+      <c r="E101" t="n">
+        <v>64</v>
+      </c>
+      <c r="F101" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -2070,6 +2680,12 @@
       <c r="D102" t="n">
         <v>1.036610664272785</v>
       </c>
+      <c r="E102" t="n">
+        <v>60</v>
+      </c>
+      <c r="F102" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -2086,6 +2702,12 @@
       <c r="D103" t="n">
         <v>0.906</v>
       </c>
+      <c r="E103" t="n">
+        <v>69</v>
+      </c>
+      <c r="F103" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -2102,6 +2724,12 @@
       <c r="D104" t="n">
         <v>0.768</v>
       </c>
+      <c r="E104" t="n">
+        <v>110</v>
+      </c>
+      <c r="F104" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -2118,6 +2746,12 @@
       <c r="D105" t="n">
         <v>2</v>
       </c>
+      <c r="E105" t="n">
+        <v>75</v>
+      </c>
+      <c r="F105" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -2134,6 +2768,12 @@
       <c r="D106" t="n">
         <v>0.6184622468080472</v>
       </c>
+      <c r="E106" t="n">
+        <v>84</v>
+      </c>
+      <c r="F106" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -2150,6 +2790,12 @@
       <c r="D107" t="n">
         <v>0.708</v>
       </c>
+      <c r="E107" t="n">
+        <v>63</v>
+      </c>
+      <c r="F107" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -2166,6 +2812,12 @@
       <c r="D108" t="n">
         <v>2</v>
       </c>
+      <c r="E108" t="n">
+        <v>53</v>
+      </c>
+      <c r="F108" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -2182,6 +2834,12 @@
       <c r="D109" t="n">
         <v>0.777</v>
       </c>
+      <c r="E109" t="n">
+        <v>69</v>
+      </c>
+      <c r="F109" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -2198,6 +2856,12 @@
       <c r="D110" t="n">
         <v>1.785</v>
       </c>
+      <c r="E110" t="n">
+        <v>110</v>
+      </c>
+      <c r="F110" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -2214,6 +2878,12 @@
       <c r="D111" t="n">
         <v>1.024</v>
       </c>
+      <c r="E111" t="n">
+        <v>58</v>
+      </c>
+      <c r="F111" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -2230,6 +2900,12 @@
       <c r="D112" t="n">
         <v>1.036610664272785</v>
       </c>
+      <c r="E112" t="n">
+        <v>60</v>
+      </c>
+      <c r="F112" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -2246,6 +2922,12 @@
       <c r="D113" t="n">
         <v>0.886</v>
       </c>
+      <c r="E113" t="n">
+        <v>86</v>
+      </c>
+      <c r="F113" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -2262,6 +2944,12 @@
       <c r="D114" t="n">
         <v>1.036610664272785</v>
       </c>
+      <c r="E114" t="n">
+        <v>64</v>
+      </c>
+      <c r="F114" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -2278,6 +2966,12 @@
       <c r="D115" t="n">
         <v>0.909</v>
       </c>
+      <c r="E115" t="n">
+        <v>73</v>
+      </c>
+      <c r="F115" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -2294,6 +2988,12 @@
       <c r="D116" t="n">
         <v>1.856</v>
       </c>
+      <c r="E116" t="n">
+        <v>53</v>
+      </c>
+      <c r="F116" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -2310,6 +3010,12 @@
       <c r="D117" t="n">
         <v>1.27</v>
       </c>
+      <c r="E117" t="n">
+        <v>54</v>
+      </c>
+      <c r="F117" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -2326,6 +3032,12 @@
       <c r="D118" t="n">
         <v>0.272</v>
       </c>
+      <c r="E118" t="n">
+        <v>64</v>
+      </c>
+      <c r="F118" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -2342,6 +3054,12 @@
       <c r="D119" t="n">
         <v>0.633</v>
       </c>
+      <c r="E119" t="n">
+        <v>122</v>
+      </c>
+      <c r="F119" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -2358,6 +3076,12 @@
       <c r="D120" t="n">
         <v>2</v>
       </c>
+      <c r="E120" t="n">
+        <v>73</v>
+      </c>
+      <c r="F120" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -2374,6 +3098,12 @@
       <c r="D121" t="n">
         <v>1.856</v>
       </c>
+      <c r="E121" t="n">
+        <v>64</v>
+      </c>
+      <c r="F121" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -2390,6 +3120,12 @@
       <c r="D122" t="n">
         <v>0.447</v>
       </c>
+      <c r="E122" t="n">
+        <v>57</v>
+      </c>
+      <c r="F122" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -2406,6 +3142,12 @@
       <c r="D123" t="n">
         <v>0.5600000000000001</v>
       </c>
+      <c r="E123" t="n">
+        <v>71</v>
+      </c>
+      <c r="F123" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -2422,6 +3164,12 @@
       <c r="D124" t="n">
         <v>0.2073032382531245</v>
       </c>
+      <c r="E124" t="n">
+        <v>107</v>
+      </c>
+      <c r="F124" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -2438,6 +3186,12 @@
       <c r="D125" t="n">
         <v>0.1</v>
       </c>
+      <c r="E125" t="n">
+        <v>68</v>
+      </c>
+      <c r="F125" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -2454,6 +3208,12 @@
       <c r="D126" t="n">
         <v>2</v>
       </c>
+      <c r="E126" t="n">
+        <v>69</v>
+      </c>
+      <c r="F126" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -2470,6 +3230,12 @@
       <c r="D127" t="n">
         <v>0.705</v>
       </c>
+      <c r="E127" t="n">
+        <v>59</v>
+      </c>
+      <c r="F127" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -2486,6 +3252,12 @@
       <c r="D128" t="n">
         <v>0.267</v>
       </c>
+      <c r="E128" t="n">
+        <v>63</v>
+      </c>
+      <c r="F128" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -2502,6 +3274,12 @@
       <c r="D129" t="n">
         <v>1.76</v>
       </c>
+      <c r="E129" t="n">
+        <v>69</v>
+      </c>
+      <c r="F129" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -2518,6 +3296,12 @@
       <c r="D130" t="n">
         <v>2</v>
       </c>
+      <c r="E130" t="n">
+        <v>73</v>
+      </c>
+      <c r="F130" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -2534,6 +3318,12 @@
       <c r="D131" t="n">
         <v>0.945</v>
       </c>
+      <c r="E131" t="n">
+        <v>61</v>
+      </c>
+      <c r="F131" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -2550,6 +3340,12 @@
       <c r="D132" t="n">
         <v>1.194</v>
       </c>
+      <c r="E132" t="n">
+        <v>75</v>
+      </c>
+      <c r="F132" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -2566,6 +3362,12 @@
       <c r="D133" t="n">
         <v>1.421</v>
       </c>
+      <c r="E133" t="n">
+        <v>120</v>
+      </c>
+      <c r="F133" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -2582,6 +3384,12 @@
       <c r="D134" t="n">
         <v>0.3793745008409976</v>
       </c>
+      <c r="E134" t="n">
+        <v>49</v>
+      </c>
+      <c r="F134" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -2598,6 +3406,12 @@
       <c r="D135" t="n">
         <v>1.277</v>
       </c>
+      <c r="E135" t="n">
+        <v>67</v>
+      </c>
+      <c r="F135" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -2614,6 +3428,12 @@
       <c r="D136" t="n">
         <v>0.6184622468080472</v>
       </c>
+      <c r="E136" t="n">
+        <v>84</v>
+      </c>
+      <c r="F136" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -2630,6 +3450,12 @@
       <c r="D137" t="n">
         <v>1.296</v>
       </c>
+      <c r="E137" t="n">
+        <v>57</v>
+      </c>
+      <c r="F137" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -2646,6 +3472,12 @@
       <c r="D138" t="n">
         <v>1.366</v>
       </c>
+      <c r="E138" t="n">
+        <v>70</v>
+      </c>
+      <c r="F138" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -2662,6 +3494,12 @@
       <c r="D139" t="n">
         <v>0.767</v>
       </c>
+      <c r="E139" t="n">
+        <v>63</v>
+      </c>
+      <c r="F139" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -2678,6 +3516,12 @@
       <c r="D140" t="n">
         <v>1.036610664272785</v>
       </c>
+      <c r="E140" t="n">
+        <v>70</v>
+      </c>
+      <c r="F140" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -2694,6 +3538,12 @@
       <c r="D141" t="n">
         <v>1.416</v>
       </c>
+      <c r="E141" t="n">
+        <v>61</v>
+      </c>
+      <c r="F141" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -2710,6 +3560,12 @@
       <c r="D142" t="n">
         <v>1.382</v>
       </c>
+      <c r="E142" t="n">
+        <v>61</v>
+      </c>
+      <c r="F142" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -2726,6 +3582,12 @@
       <c r="D143" t="n">
         <v>1.44</v>
       </c>
+      <c r="E143" t="n">
+        <v>68</v>
+      </c>
+      <c r="F143" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -2742,6 +3604,12 @@
       <c r="D144" t="n">
         <v>1.036610664272785</v>
       </c>
+      <c r="E144" t="n">
+        <v>66</v>
+      </c>
+      <c r="F144" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -2758,6 +3626,12 @@
       <c r="D145" t="n">
         <v>2</v>
       </c>
+      <c r="E145" t="n">
+        <v>61</v>
+      </c>
+      <c r="F145" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -2774,6 +3648,12 @@
       <c r="D146" t="n">
         <v>0.843</v>
       </c>
+      <c r="E146" t="n">
+        <v>71</v>
+      </c>
+      <c r="F146" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -2790,6 +3670,12 @@
       <c r="D147" t="n">
         <v>1.036610664272785</v>
       </c>
+      <c r="E147" t="n">
+        <v>66</v>
+      </c>
+      <c r="F147" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -2806,6 +3692,12 @@
       <c r="D148" t="n">
         <v>0.511</v>
       </c>
+      <c r="E148" t="n">
+        <v>64</v>
+      </c>
+      <c r="F148" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -2822,6 +3714,12 @@
       <c r="D149" t="n">
         <v>0.1353687369268037</v>
       </c>
+      <c r="E149" t="n">
+        <v>58</v>
+      </c>
+      <c r="F149" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -2838,6 +3736,12 @@
       <c r="D150" t="n">
         <v>1.763</v>
       </c>
+      <c r="E150" t="n">
+        <v>71</v>
+      </c>
+      <c r="F150" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -2854,6 +3758,12 @@
       <c r="D151" t="n">
         <v>1.612</v>
       </c>
+      <c r="E151" t="n">
+        <v>53</v>
+      </c>
+      <c r="F151" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -2870,6 +3780,12 @@
       <c r="D152" t="n">
         <v>1.918</v>
       </c>
+      <c r="E152" t="n">
+        <v>53</v>
+      </c>
+      <c r="F152" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -2886,6 +3802,12 @@
       <c r="D153" t="n">
         <v>0.459</v>
       </c>
+      <c r="E153" t="n">
+        <v>89</v>
+      </c>
+      <c r="F153" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -2902,6 +3824,12 @@
       <c r="D154" t="n">
         <v>1.994</v>
       </c>
+      <c r="E154" t="n">
+        <v>89</v>
+      </c>
+      <c r="F154" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -2918,6 +3846,12 @@
       <c r="D155" t="n">
         <v>0.728</v>
       </c>
+      <c r="E155" t="n">
+        <v>64</v>
+      </c>
+      <c r="F155" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -2934,6 +3868,12 @@
       <c r="D156" t="n">
         <v>0.737</v>
       </c>
+      <c r="E156" t="n">
+        <v>58</v>
+      </c>
+      <c r="F156" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -2950,6 +3890,12 @@
       <c r="D157" t="n">
         <v>2</v>
       </c>
+      <c r="E157" t="n">
+        <v>73</v>
+      </c>
+      <c r="F157" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -2966,6 +3912,12 @@
       <c r="D158" t="n">
         <v>0.782</v>
       </c>
+      <c r="E158" t="n">
+        <v>63</v>
+      </c>
+      <c r="F158" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -2982,6 +3934,12 @@
       <c r="D159" t="n">
         <v>0.419</v>
       </c>
+      <c r="E159" t="n">
+        <v>61</v>
+      </c>
+      <c r="F159" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -2998,6 +3956,12 @@
       <c r="D160" t="n">
         <v>1.979</v>
       </c>
+      <c r="E160" t="n">
+        <v>53</v>
+      </c>
+      <c r="F160" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -3014,6 +3978,12 @@
       <c r="D161" t="n">
         <v>1.418</v>
       </c>
+      <c r="E161" t="n">
+        <v>77</v>
+      </c>
+      <c r="F161" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -3030,6 +4000,12 @@
       <c r="D162" t="n">
         <v>1.036610664272785</v>
       </c>
+      <c r="E162" t="n">
+        <v>60</v>
+      </c>
+      <c r="F162" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -3046,6 +4022,12 @@
       <c r="D163" t="n">
         <v>1.036610664272785</v>
       </c>
+      <c r="E163" t="n">
+        <v>54</v>
+      </c>
+      <c r="F163" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -3062,6 +4044,12 @@
       <c r="D164" t="n">
         <v>1.072</v>
       </c>
+      <c r="E164" t="n">
+        <v>53</v>
+      </c>
+      <c r="F164" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -3078,6 +4066,12 @@
       <c r="D165" t="n">
         <v>1.841</v>
       </c>
+      <c r="E165" t="n">
+        <v>68</v>
+      </c>
+      <c r="F165" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -3094,6 +4088,12 @@
       <c r="D166" t="n">
         <v>0.5639999999999999</v>
       </c>
+      <c r="E166" t="n">
+        <v>61</v>
+      </c>
+      <c r="F166" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -3110,6 +4110,12 @@
       <c r="D167" t="n">
         <v>1.083</v>
       </c>
+      <c r="E167" t="n">
+        <v>57</v>
+      </c>
+      <c r="F167" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -3126,6 +4132,12 @@
       <c r="D168" t="n">
         <v>1.422</v>
       </c>
+      <c r="E168" t="n">
+        <v>69</v>
+      </c>
+      <c r="F168" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -3142,6 +4154,12 @@
       <c r="D169" t="n">
         <v>0.6184622468080472</v>
       </c>
+      <c r="E169" t="n">
+        <v>84</v>
+      </c>
+      <c r="F169" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -3158,6 +4176,12 @@
       <c r="D170" t="n">
         <v>1.451</v>
       </c>
+      <c r="E170" t="n">
+        <v>64</v>
+      </c>
+      <c r="F170" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -3174,6 +4198,12 @@
       <c r="D171" t="n">
         <v>0.8080000000000001</v>
       </c>
+      <c r="E171" t="n">
+        <v>64</v>
+      </c>
+      <c r="F171" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -3190,6 +4220,12 @@
       <c r="D172" t="n">
         <v>1.712</v>
       </c>
+      <c r="E172" t="n">
+        <v>69</v>
+      </c>
+      <c r="F172" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -3206,6 +4242,12 @@
       <c r="D173" t="n">
         <v>0.6184622468080472</v>
       </c>
+      <c r="E173" t="n">
+        <v>84</v>
+      </c>
+      <c r="F173" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -3222,6 +4264,12 @@
       <c r="D174" t="n">
         <v>1.036610664272785</v>
       </c>
+      <c r="E174" t="n">
+        <v>60</v>
+      </c>
+      <c r="F174" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -3238,6 +4286,12 @@
       <c r="D175" t="n">
         <v>1.819</v>
       </c>
+      <c r="E175" t="n">
+        <v>58</v>
+      </c>
+      <c r="F175" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -3254,6 +4308,12 @@
       <c r="D176" t="n">
         <v>0.332</v>
       </c>
+      <c r="E176" t="n">
+        <v>68</v>
+      </c>
+      <c r="F176" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -3270,6 +4330,12 @@
       <c r="D177" t="n">
         <v>1.036610664272785</v>
       </c>
+      <c r="E177" t="n">
+        <v>60</v>
+      </c>
+      <c r="F177" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -3286,6 +4352,12 @@
       <c r="D178" t="n">
         <v>2</v>
       </c>
+      <c r="E178" t="n">
+        <v>64</v>
+      </c>
+      <c r="F178" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -3302,6 +4374,12 @@
       <c r="D179" t="n">
         <v>0.627</v>
       </c>
+      <c r="E179" t="n">
+        <v>44</v>
+      </c>
+      <c r="F179" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -3318,6 +4396,12 @@
       <c r="D180" t="n">
         <v>1.299</v>
       </c>
+      <c r="E180" t="n">
+        <v>71</v>
+      </c>
+      <c r="F180" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -3334,6 +4418,12 @@
       <c r="D181" t="n">
         <v>0.501</v>
       </c>
+      <c r="E181" t="n">
+        <v>71</v>
+      </c>
+      <c r="F181" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -3350,6 +4440,12 @@
       <c r="D182" t="n">
         <v>1.432</v>
       </c>
+      <c r="E182" t="n">
+        <v>54</v>
+      </c>
+      <c r="F182" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -3366,6 +4462,12 @@
       <c r="D183" t="n">
         <v>1.202</v>
       </c>
+      <c r="E183" t="n">
+        <v>69</v>
+      </c>
+      <c r="F183" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -3382,6 +4484,12 @@
       <c r="D184" t="n">
         <v>1.645</v>
       </c>
+      <c r="E184" t="n">
+        <v>69</v>
+      </c>
+      <c r="F184" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -3398,6 +4506,12 @@
       <c r="D185" t="n">
         <v>1.682</v>
       </c>
+      <c r="E185" t="n">
+        <v>57</v>
+      </c>
+      <c r="F185" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -3414,6 +4528,12 @@
       <c r="D186" t="n">
         <v>0.1</v>
       </c>
+      <c r="E186" t="n">
+        <v>68</v>
+      </c>
+      <c r="F186" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -3430,6 +4550,12 @@
       <c r="D187" t="n">
         <v>1.83</v>
       </c>
+      <c r="E187" t="n">
+        <v>69</v>
+      </c>
+      <c r="F187" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -3446,6 +4572,12 @@
       <c r="D188" t="n">
         <v>1.036610664272785</v>
       </c>
+      <c r="E188" t="n">
+        <v>66</v>
+      </c>
+      <c r="F188" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -3462,6 +4594,12 @@
       <c r="D189" t="n">
         <v>0.1353687369268037</v>
       </c>
+      <c r="E189" t="n">
+        <v>58</v>
+      </c>
+      <c r="F189" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -3478,6 +4616,12 @@
       <c r="D190" t="n">
         <v>2</v>
       </c>
+      <c r="E190" t="n">
+        <v>61</v>
+      </c>
+      <c r="F190" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -3494,6 +4638,12 @@
       <c r="D191" t="n">
         <v>1.036610664272785</v>
       </c>
+      <c r="E191" t="n">
+        <v>66</v>
+      </c>
+      <c r="F191" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -3510,6 +4660,12 @@
       <c r="D192" t="n">
         <v>1.078</v>
       </c>
+      <c r="E192" t="n">
+        <v>69</v>
+      </c>
+      <c r="F192" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -3526,6 +4682,12 @@
       <c r="D193" t="n">
         <v>1.474</v>
       </c>
+      <c r="E193" t="n">
+        <v>69</v>
+      </c>
+      <c r="F193" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -3542,6 +4704,12 @@
       <c r="D194" t="n">
         <v>1.625</v>
       </c>
+      <c r="E194" t="n">
+        <v>69</v>
+      </c>
+      <c r="F194" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -3558,6 +4726,12 @@
       <c r="D195" t="n">
         <v>0.1353687369268037</v>
       </c>
+      <c r="E195" t="n">
+        <v>58</v>
+      </c>
+      <c r="F195" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -3574,6 +4748,12 @@
       <c r="D196" t="n">
         <v>0.514</v>
       </c>
+      <c r="E196" t="n">
+        <v>54</v>
+      </c>
+      <c r="F196" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -3590,6 +4770,12 @@
       <c r="D197" t="n">
         <v>1.036610664272785</v>
       </c>
+      <c r="E197" t="n">
+        <v>54</v>
+      </c>
+      <c r="F197" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -3606,6 +4792,12 @@
       <c r="D198" t="n">
         <v>0.245</v>
       </c>
+      <c r="E198" t="n">
+        <v>63</v>
+      </c>
+      <c r="F198" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -3622,6 +4814,12 @@
       <c r="D199" t="n">
         <v>1.33</v>
       </c>
+      <c r="E199" t="n">
+        <v>71</v>
+      </c>
+      <c r="F199" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -3638,6 +4836,12 @@
       <c r="D200" t="n">
         <v>1.449</v>
       </c>
+      <c r="E200" t="n">
+        <v>57</v>
+      </c>
+      <c r="F200" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -3654,6 +4858,12 @@
       <c r="D201" t="n">
         <v>2</v>
       </c>
+      <c r="E201" t="n">
+        <v>69</v>
+      </c>
+      <c r="F201" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -3670,6 +4880,12 @@
       <c r="D202" t="n">
         <v>2</v>
       </c>
+      <c r="E202" t="n">
+        <v>54</v>
+      </c>
+      <c r="F202" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -3686,6 +4902,12 @@
       <c r="D203" t="n">
         <v>1.071</v>
       </c>
+      <c r="E203" t="n">
+        <v>58</v>
+      </c>
+      <c r="F203" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -3702,6 +4924,12 @@
       <c r="D204" t="n">
         <v>0.1353687369268037</v>
       </c>
+      <c r="E204" t="n">
+        <v>58</v>
+      </c>
+      <c r="F204" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -3718,6 +4946,12 @@
       <c r="D205" t="n">
         <v>1.193</v>
       </c>
+      <c r="E205" t="n">
+        <v>69</v>
+      </c>
+      <c r="F205" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -3734,6 +4968,12 @@
       <c r="D206" t="n">
         <v>1.187</v>
       </c>
+      <c r="E206" t="n">
+        <v>69</v>
+      </c>
+      <c r="F206" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -3750,6 +4990,12 @@
       <c r="D207" t="n">
         <v>1.036610664272785</v>
       </c>
+      <c r="E207" t="n">
+        <v>66</v>
+      </c>
+      <c r="F207" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -3766,6 +5012,12 @@
       <c r="D208" t="n">
         <v>0.5</v>
       </c>
+      <c r="E208" t="n">
+        <v>64</v>
+      </c>
+      <c r="F208" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -3782,6 +5034,12 @@
       <c r="D209" t="n">
         <v>1.493</v>
       </c>
+      <c r="E209" t="n">
+        <v>101</v>
+      </c>
+      <c r="F209" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -3798,6 +5056,12 @@
       <c r="D210" t="n">
         <v>1.435</v>
       </c>
+      <c r="E210" t="n">
+        <v>69</v>
+      </c>
+      <c r="F210" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -3814,6 +5078,12 @@
       <c r="D211" t="n">
         <v>0.1</v>
       </c>
+      <c r="E211" t="n">
+        <v>63</v>
+      </c>
+      <c r="F211" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -3830,6 +5100,12 @@
       <c r="D212" t="n">
         <v>1.631</v>
       </c>
+      <c r="E212" t="n">
+        <v>69</v>
+      </c>
+      <c r="F212" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -3846,6 +5122,12 @@
       <c r="D213" t="n">
         <v>1.389</v>
       </c>
+      <c r="E213" t="n">
+        <v>69</v>
+      </c>
+      <c r="F213" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -3862,6 +5144,12 @@
       <c r="D214" t="n">
         <v>1.757</v>
       </c>
+      <c r="E214" t="n">
+        <v>68</v>
+      </c>
+      <c r="F214" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -3878,6 +5166,12 @@
       <c r="D215" t="n">
         <v>2</v>
       </c>
+      <c r="E215" t="n">
+        <v>64</v>
+      </c>
+      <c r="F215" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -3894,6 +5188,12 @@
       <c r="D216" t="n">
         <v>0.299</v>
       </c>
+      <c r="E216" t="n">
+        <v>110</v>
+      </c>
+      <c r="F216" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -3910,6 +5210,12 @@
       <c r="D217" t="n">
         <v>0.6184622468080472</v>
       </c>
+      <c r="E217" t="n">
+        <v>84</v>
+      </c>
+      <c r="F217" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -3926,6 +5232,12 @@
       <c r="D218" t="n">
         <v>1.42</v>
       </c>
+      <c r="E218" t="n">
+        <v>61</v>
+      </c>
+      <c r="F218" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -3942,6 +5254,12 @@
       <c r="D219" t="n">
         <v>1.444</v>
       </c>
+      <c r="E219" t="n">
+        <v>69</v>
+      </c>
+      <c r="F219" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -3958,6 +5276,12 @@
       <c r="D220" t="n">
         <v>0.1353687369268037</v>
       </c>
+      <c r="E220" t="n">
+        <v>58</v>
+      </c>
+      <c r="F220" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -3974,6 +5298,12 @@
       <c r="D221" t="n">
         <v>0.1353687369268037</v>
       </c>
+      <c r="E221" t="n">
+        <v>58</v>
+      </c>
+      <c r="F221" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -3990,6 +5320,12 @@
       <c r="D222" t="n">
         <v>1.451</v>
       </c>
+      <c r="E222" t="n">
+        <v>64</v>
+      </c>
+      <c r="F222" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -4006,6 +5342,12 @@
       <c r="D223" t="n">
         <v>1.902</v>
       </c>
+      <c r="E223" t="n">
+        <v>59</v>
+      </c>
+      <c r="F223" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -4022,6 +5364,12 @@
       <c r="D224" t="n">
         <v>0.1</v>
       </c>
+      <c r="E224" t="n">
+        <v>59</v>
+      </c>
+      <c r="F224" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -4038,6 +5386,12 @@
       <c r="D225" t="n">
         <v>1.114</v>
       </c>
+      <c r="E225" t="n">
+        <v>68</v>
+      </c>
+      <c r="F225" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -4054,6 +5408,12 @@
       <c r="D226" t="n">
         <v>0.3793745008409976</v>
       </c>
+      <c r="E226" t="n">
+        <v>49</v>
+      </c>
+      <c r="F226" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -4070,6 +5430,12 @@
       <c r="D227" t="n">
         <v>2</v>
       </c>
+      <c r="E227" t="n">
+        <v>103</v>
+      </c>
+      <c r="F227" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -4086,6 +5452,12 @@
       <c r="D228" t="n">
         <v>0.645</v>
       </c>
+      <c r="E228" t="n">
+        <v>73</v>
+      </c>
+      <c r="F228" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -4102,63 +5474,87 @@
       <c r="D229" t="n">
         <v>0.917</v>
       </c>
+      <c r="E229" t="n">
+        <v>67</v>
+      </c>
+      <c r="F229" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Rua 3, Norte, Águas Claras, Brasília - DF</t>
+          <t>Rua 14, Norte, Águas Claras, Brasília - DF</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>1430000</v>
+        <v>1250000</v>
       </c>
       <c r="C230" t="n">
         <v>4</v>
       </c>
       <c r="D230" t="n">
-        <v>0.2515111409898256</v>
+        <v>1.96</v>
+      </c>
+      <c r="E230" t="n">
+        <v>120</v>
+      </c>
+      <c r="F230" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Rua 14, Norte, Águas Claras, Brasília - DF</t>
+          <t>Avenida Das Araucárias, Sul, Águas Claras, Brasília - DF</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>1250000</v>
+        <v>1420000</v>
       </c>
       <c r="C231" t="n">
         <v>4</v>
       </c>
       <c r="D231" t="n">
-        <v>1.96</v>
+        <v>1.896</v>
+      </c>
+      <c r="E231" t="n">
+        <v>61</v>
+      </c>
+      <c r="F231" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Avenida Das Araucárias, Sul, Águas Claras, Brasília - DF</t>
+          <t>Alameda Das Acácias Quadra 107, Norte, Águas Claras, Brasília - DF</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>1420000</v>
+        <v>1700000</v>
       </c>
       <c r="C232" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D232" t="n">
-        <v>1.896</v>
+        <v>0.1</v>
+      </c>
+      <c r="E232" t="n">
+        <v>64</v>
+      </c>
+      <c r="F232" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Alameda Das Acácias Quadra 107, Norte, Águas Claras, Brasília - DF</t>
+          <t>Rua 24, Norte, Águas Claras, Brasília - DF</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>1700000</v>
+        <v>1690000</v>
       </c>
       <c r="C233" t="n">
         <v>3</v>
@@ -4166,437 +5562,605 @@
       <c r="D233" t="n">
         <v>0.1</v>
       </c>
+      <c r="E233" t="n">
+        <v>57</v>
+      </c>
+      <c r="F233" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Rua 24, Norte, Águas Claras, Brasília - DF</t>
+          <t>Rua Das Paineiras, Norte, Águas Claras, Brasília - DF</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>1690000</v>
+        <v>1229000</v>
       </c>
       <c r="C234" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D234" t="n">
-        <v>0.1</v>
+        <v>2</v>
+      </c>
+      <c r="E234" t="n">
+        <v>53</v>
+      </c>
+      <c r="F234" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Rua Das Paineiras, Norte, Águas Claras, Brasília - DF</t>
+          <t>Rua 27, Norte, Águas Claras, Brasília - DF</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>1229000</v>
+        <v>1377000</v>
       </c>
       <c r="C235" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D235" t="n">
+        <v>1.369</v>
+      </c>
+      <c r="E235" t="n">
+        <v>101</v>
+      </c>
+      <c r="F235" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Rua 27, Norte, Águas Claras, Brasília - DF</t>
+          <t>Rua Das Paineiras, Norte, Águas Claras, Brasília - DF</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>1377000</v>
+        <v>1280000</v>
       </c>
       <c r="C236" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D236" t="n">
-        <v>1.369</v>
+        <v>1.289</v>
+      </c>
+      <c r="E236" t="n">
+        <v>53</v>
+      </c>
+      <c r="F236" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Rua Das Paineiras, Norte, Águas Claras, Brasília - DF</t>
+          <t>Quadra 206, Sul, Águas Claras, Brasília - DF</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>1280000</v>
+        <v>1760000</v>
       </c>
       <c r="C237" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D237" t="n">
-        <v>1.289</v>
+        <v>0.1</v>
+      </c>
+      <c r="E237" t="n">
+        <v>68</v>
+      </c>
+      <c r="F237" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Quadra 206, Sul, Águas Claras, Brasília - DF</t>
+          <t>Rua 25, Sul, Águas Claras, Brasília - DF</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>1760000</v>
+        <v>1200000</v>
       </c>
       <c r="C238" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D238" t="n">
-        <v>0.1</v>
+        <v>1.036610664272785</v>
+      </c>
+      <c r="E238" t="n">
+        <v>60</v>
+      </c>
+      <c r="F238" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Rua 25, Sul, Águas Claras, Brasília - DF</t>
+          <t>Avenida Flamboyant, Norte, Águas Claras, Brasília - DF</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>1200000</v>
+        <v>1500000</v>
       </c>
       <c r="C239" t="n">
         <v>4</v>
       </c>
       <c r="D239" t="n">
-        <v>1.036610664272785</v>
+        <v>0.116</v>
+      </c>
+      <c r="E239" t="n">
+        <v>58</v>
+      </c>
+      <c r="F239" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Avenida Flamboyant, Norte, Águas Claras, Brasília - DF</t>
+          <t>Rua Alecrim, Sul, Águas Claras, Brasília - DF</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>1500000</v>
+        <v>1380000</v>
       </c>
       <c r="C240" t="n">
         <v>4</v>
       </c>
       <c r="D240" t="n">
-        <v>0.116</v>
+        <v>1.876</v>
+      </c>
+      <c r="E240" t="n">
+        <v>47</v>
+      </c>
+      <c r="F240" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Rua Alecrim, Sul, Águas Claras, Brasília - DF</t>
+          <t>Rua 28, Norte, Águas Claras, Brasília - DF</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>1380000</v>
+        <v>1300000</v>
       </c>
       <c r="C241" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D241" t="n">
-        <v>1.876</v>
+        <v>1.149</v>
+      </c>
+      <c r="E241" t="n">
+        <v>69</v>
+      </c>
+      <c r="F241" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Rua 28, Norte, Águas Claras, Brasília - DF</t>
+          <t>Rua 4, Sul, Águas Claras, Brasília - DF</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>1300000</v>
+        <v>1600000</v>
       </c>
       <c r="C242" t="n">
         <v>3</v>
       </c>
       <c r="D242" t="n">
-        <v>1.149</v>
+        <v>0.3357747825600471</v>
+      </c>
+      <c r="E242" t="n">
+        <v>82</v>
+      </c>
+      <c r="F242" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Rua 4, Sul, Águas Claras, Brasília - DF</t>
+          <t>Avenida Parque Águas Claras, Norte, Águas Claras, Brasília - DF</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>1600000</v>
+        <v>1599000</v>
       </c>
       <c r="C243" t="n">
         <v>3</v>
       </c>
       <c r="D243" t="n">
-        <v>0.3357747825600471</v>
+        <v>0.335</v>
+      </c>
+      <c r="E243" t="n">
+        <v>71</v>
+      </c>
+      <c r="F243" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Avenida Parque Águas Claras, Norte, Águas Claras, Brasília - DF</t>
+          <t>Rua Das Pitangueiras, Sul, Águas Claras, Brasília - DF</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>1599000</v>
+        <v>1390000</v>
       </c>
       <c r="C244" t="n">
         <v>3</v>
       </c>
       <c r="D244" t="n">
-        <v>0.335</v>
+        <v>1.309</v>
+      </c>
+      <c r="E244" t="n">
+        <v>54</v>
+      </c>
+      <c r="F244" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Rua Das Pitangueiras, Sul, Águas Claras, Brasília - DF</t>
+          <t>Rua 31, Norte, Águas Claras, Brasília - DF</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>1390000</v>
+        <v>1440000</v>
       </c>
       <c r="C245" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D245" t="n">
-        <v>1.309</v>
+        <v>1.182</v>
+      </c>
+      <c r="E245" t="n">
+        <v>126</v>
+      </c>
+      <c r="F245" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Rua 31, Norte, Águas Claras, Brasília - DF</t>
+          <t>Avenida Das Araucárias, Sul, Águas Claras, Brasília - DF</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>1440000</v>
+        <v>1450000</v>
       </c>
       <c r="C246" t="n">
         <v>4</v>
       </c>
       <c r="D246" t="n">
-        <v>1.182</v>
+        <v>1.675</v>
+      </c>
+      <c r="E246" t="n">
+        <v>61</v>
+      </c>
+      <c r="F246" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Avenida Das Araucárias, Sul, Águas Claras, Brasília - DF</t>
+          <t>Rua 33, Norte, Águas Claras, Brasília - DF</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>1450000</v>
+        <v>1300000</v>
       </c>
       <c r="C247" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D247" t="n">
-        <v>1.675</v>
+        <v>2</v>
+      </c>
+      <c r="E247" t="n">
+        <v>122</v>
+      </c>
+      <c r="F247" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Rua 33, Norte, Águas Claras, Brasília - DF</t>
+          <t>Qs 5 Rua 400, Areal, Águas Claras, Brasília - DF</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>1300000</v>
+        <v>1599000</v>
       </c>
       <c r="C248" t="n">
         <v>3</v>
       </c>
       <c r="D248" t="n">
-        <v>2</v>
+        <v>0.1</v>
+      </c>
+      <c r="E248" t="n">
+        <v>59</v>
+      </c>
+      <c r="F248" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Qs 5 Rua 400, Areal, Águas Claras, Brasília - DF</t>
+          <t>Rua 5, Sul, Águas Claras, Brasília - DF</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>1599000</v>
+        <v>1250000</v>
       </c>
       <c r="C249" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D249" t="n">
-        <v>0.1</v>
+        <v>1.036610664272785</v>
+      </c>
+      <c r="E249" t="n">
+        <v>66</v>
+      </c>
+      <c r="F249" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Rua 5, Sul, Águas Claras, Brasília - DF</t>
+          <t>Avenida Das Araucárias, Sul, Águas Claras, Brasília - DF</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>1250000</v>
+        <v>1390000</v>
       </c>
       <c r="C250" t="n">
         <v>4</v>
       </c>
       <c r="D250" t="n">
-        <v>1.036610664272785</v>
+        <v>1.744</v>
+      </c>
+      <c r="E250" t="n">
+        <v>61</v>
+      </c>
+      <c r="F250" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Avenida Das Araucárias, Sul, Águas Claras, Brasília - DF</t>
+          <t>Quadra 101, Norte, Águas Claras, Brasília - DF</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>1390000</v>
+        <v>1530000</v>
       </c>
       <c r="C251" t="n">
         <v>4</v>
       </c>
       <c r="D251" t="n">
-        <v>1.744</v>
+        <v>1.385</v>
+      </c>
+      <c r="E251" t="n">
+        <v>64</v>
+      </c>
+      <c r="F251" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Quadra 101, Norte, Águas Claras, Brasília - DF</t>
+          <t>Rua 5, Sul, Águas Claras, Brasília - DF</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>1530000</v>
+        <v>1200000</v>
       </c>
       <c r="C252" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D252" t="n">
-        <v>1.385</v>
+        <v>1.036610664272785</v>
+      </c>
+      <c r="E252" t="n">
+        <v>66</v>
+      </c>
+      <c r="F252" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Rua 5, Sul, Águas Claras, Brasília - DF</t>
+          <t>Alameda Das Acácias Quadra 107, Norte, Águas Claras, Brasília - DF</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>1200000</v>
+        <v>1690000</v>
       </c>
       <c r="C253" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D253" t="n">
-        <v>1.036610664272785</v>
+        <v>0.47</v>
+      </c>
+      <c r="E253" t="n">
+        <v>64</v>
+      </c>
+      <c r="F253" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Alameda Das Acácias Quadra 107, Norte, Águas Claras, Brasília - DF</t>
+          <t>Rua 36, Sul, Águas Claras, Brasília - DF</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>1690000</v>
+        <v>1200000</v>
       </c>
       <c r="C254" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D254" t="n">
-        <v>0.47</v>
+        <v>1.036610664272785</v>
+      </c>
+      <c r="E254" t="n">
+        <v>66</v>
+      </c>
+      <c r="F254" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>Rua 36, Sul, Águas Claras, Brasília - DF</t>
+          <t>Quadra 105, Norte, Águas Claras, Brasília - DF</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>1200000</v>
+        <v>1278950</v>
       </c>
       <c r="C255" t="n">
         <v>3</v>
       </c>
       <c r="D255" t="n">
-        <v>1.036610664272785</v>
+        <v>0.6184622468080472</v>
+      </c>
+      <c r="E255" t="n">
+        <v>84</v>
+      </c>
+      <c r="F255" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Quadra 105, Norte, Águas Claras, Brasília - DF</t>
+          <t>Rua 8, Sul, Águas Claras, Brasília - DF</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>1278950</v>
+        <v>1300000</v>
       </c>
       <c r="C256" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D256" t="n">
-        <v>0.6184622468080472</v>
+        <v>0.2073032382531245</v>
+      </c>
+      <c r="E256" t="n">
+        <v>107</v>
+      </c>
+      <c r="F256" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Rua 8, Sul, Águas Claras, Brasília - DF</t>
+          <t>Avenida Pau Brasil, Sul, Águas Claras, Brasília - DF</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>1300000</v>
+        <v>1280000</v>
       </c>
       <c r="C257" t="n">
         <v>4</v>
       </c>
       <c r="D257" t="n">
-        <v>0.2073032382531245</v>
+        <v>0.1353687369268037</v>
+      </c>
+      <c r="E257" t="n">
+        <v>58</v>
+      </c>
+      <c r="F257" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Avenida Pau Brasil, Sul, Águas Claras, Brasília - DF</t>
+          <t>Alameda Das Acácias Quadra 107, Norte, Águas Claras, Brasília - DF</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>1280000</v>
+        <v>1380000</v>
       </c>
       <c r="C258" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D258" t="n">
-        <v>0.1353687369268037</v>
+        <v>1.294</v>
+      </c>
+      <c r="E258" t="n">
+        <v>64</v>
+      </c>
+      <c r="F258" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Alameda Das Acácias Quadra 107, Norte, Águas Claras, Brasília - DF</t>
+          <t>Rua 27, Norte, Águas Claras, Brasília - DF</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>1380000</v>
+        <v>1350000</v>
       </c>
       <c r="C259" t="n">
         <v>3</v>
       </c>
       <c r="D259" t="n">
-        <v>1.294</v>
+        <v>1.589</v>
+      </c>
+      <c r="E259" t="n">
+        <v>101</v>
+      </c>
+      <c r="F259" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Rua 27, Norte, Águas Claras, Brasília - DF</t>
+          <t>Rua Das Paineiras, Norte, Águas Claras, Brasília - DF</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>1350000</v>
+        <v>1700000</v>
       </c>
       <c r="C260" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D260" t="n">
-        <v>1.589</v>
+        <v>0.555</v>
+      </c>
+      <c r="E260" t="n">
+        <v>53</v>
+      </c>
+      <c r="F260" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="261">
@@ -4606,508 +6170,700 @@
         </is>
       </c>
       <c r="B261" t="n">
-        <v>1700000</v>
+        <v>1220000</v>
       </c>
       <c r="C261" t="n">
         <v>4</v>
       </c>
       <c r="D261" t="n">
-        <v>0.555</v>
+        <v>1.825</v>
+      </c>
+      <c r="E261" t="n">
+        <v>53</v>
+      </c>
+      <c r="F261" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Rua Das Paineiras, Norte, Águas Claras, Brasília - DF</t>
+          <t>Alameda Das Acácias Quadra 107, Norte, Águas Claras, Brasília - DF</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>1220000</v>
+        <v>1780000</v>
       </c>
       <c r="C262" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D262" t="n">
-        <v>1.825</v>
+        <v>0.229</v>
+      </c>
+      <c r="E262" t="n">
+        <v>64</v>
+      </c>
+      <c r="F262" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Alameda Das Acácias Quadra 107, Norte, Águas Claras, Brasília - DF</t>
+          <t>Quadra 202, Sul, Águas Claras, Brasília - DF</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>1780000</v>
+        <v>1389000</v>
       </c>
       <c r="C263" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D263" t="n">
-        <v>0.229</v>
+        <v>2</v>
+      </c>
+      <c r="E263" t="n">
+        <v>122</v>
+      </c>
+      <c r="F263" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Quadra 202, Sul, Águas Claras, Brasília - DF</t>
+          <t>Rua 22, Norte, Águas Claras, Brasília - DF</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>1389000</v>
+        <v>1420000</v>
       </c>
       <c r="C264" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D264" t="n">
+        <v>1.389</v>
+      </c>
+      <c r="E264" t="n">
+        <v>67</v>
+      </c>
+      <c r="F264" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Rua 22, Norte, Águas Claras, Brasília - DF</t>
+          <t>Avenida Das Araucárias, Sul, Águas Claras, Brasília - DF</t>
         </is>
       </c>
       <c r="B265" t="n">
-        <v>1420000</v>
+        <v>1390000</v>
       </c>
       <c r="C265" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D265" t="n">
-        <v>1.389</v>
+        <v>1.326</v>
+      </c>
+      <c r="E265" t="n">
+        <v>61</v>
+      </c>
+      <c r="F265" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Avenida Das Araucárias, Sul, Águas Claras, Brasília - DF</t>
+          <t>Rua 31, Norte, Águas Claras, Brasília - DF</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>1390000</v>
+        <v>1250000</v>
       </c>
       <c r="C266" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D266" t="n">
-        <v>1.326</v>
+        <v>1.587</v>
+      </c>
+      <c r="E266" t="n">
+        <v>126</v>
+      </c>
+      <c r="F266" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Rua 31, Norte, Águas Claras, Brasília - DF</t>
+          <t>Avenida Pau Brasil, Norte, Águas Claras, Brasília - DF</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>1250000</v>
+        <v>1790000</v>
       </c>
       <c r="C267" t="n">
         <v>3</v>
       </c>
       <c r="D267" t="n">
-        <v>1.587</v>
+        <v>0.548</v>
+      </c>
+      <c r="E267" t="n">
+        <v>70</v>
+      </c>
+      <c r="F267" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>Avenida Pau Brasil, Norte, Águas Claras, Brasília - DF</t>
+          <t>Rua 28, Norte, Águas Claras, Brasília - DF</t>
         </is>
       </c>
       <c r="B268" t="n">
-        <v>1790000</v>
+        <v>1490000</v>
       </c>
       <c r="C268" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D268" t="n">
-        <v>0.548</v>
+        <v>1.146</v>
+      </c>
+      <c r="E268" t="n">
+        <v>69</v>
+      </c>
+      <c r="F268" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Rua 28, Norte, Águas Claras, Brasília - DF</t>
+          <t>Quadra 102, Norte, Águas Claras, Brasília - DF</t>
         </is>
       </c>
       <c r="B269" t="n">
-        <v>1490000</v>
+        <v>1400000</v>
       </c>
       <c r="C269" t="n">
         <v>4</v>
       </c>
       <c r="D269" t="n">
-        <v>1.146</v>
+        <v>1.297</v>
+      </c>
+      <c r="E269" t="n">
+        <v>69</v>
+      </c>
+      <c r="F269" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>Quadra 102, Norte, Águas Claras, Brasília - DF</t>
+          <t>Alameda Das Acácias Quadra 107, Norte, Águas Claras, Brasília - DF</t>
         </is>
       </c>
       <c r="B270" t="n">
-        <v>1400000</v>
+        <v>1450000</v>
       </c>
       <c r="C270" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D270" t="n">
-        <v>1.297</v>
+        <v>0.77</v>
+      </c>
+      <c r="E270" t="n">
+        <v>64</v>
+      </c>
+      <c r="F270" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Alameda Das Acácias Quadra 107, Norte, Águas Claras, Brasília - DF</t>
+          <t>Avenida Das Araucárias, Sul, Águas Claras, Brasília - DF</t>
         </is>
       </c>
       <c r="B271" t="n">
-        <v>1450000</v>
+        <v>1410000</v>
       </c>
       <c r="C271" t="n">
         <v>3</v>
       </c>
       <c r="D271" t="n">
-        <v>0.77</v>
+        <v>1.109</v>
+      </c>
+      <c r="E271" t="n">
+        <v>61</v>
+      </c>
+      <c r="F271" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>Avenida Das Araucárias, Sul, Águas Claras, Brasília - DF</t>
+          <t>Rua 8, Norte, Águas Claras, Brasília - DF</t>
         </is>
       </c>
       <c r="B272" t="n">
-        <v>1410000</v>
+        <v>1295000</v>
       </c>
       <c r="C272" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D272" t="n">
-        <v>1.109</v>
+        <v>1.362</v>
+      </c>
+      <c r="E272" t="n">
+        <v>69</v>
+      </c>
+      <c r="F272" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>Rua 8, Norte, Águas Claras, Brasília - DF</t>
+          <t>Quadra 105, Norte, Águas Claras, Brasília - DF</t>
         </is>
       </c>
       <c r="B273" t="n">
-        <v>1295000</v>
+        <v>1525127</v>
       </c>
       <c r="C273" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D273" t="n">
-        <v>1.362</v>
+        <v>0.6184622468080472</v>
+      </c>
+      <c r="E273" t="n">
+        <v>84</v>
+      </c>
+      <c r="F273" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Quadra 105, Norte, Águas Claras, Brasília - DF</t>
+          <t>Alameda Dos Eucaliptos Quadra 107, Norte, Águas Claras, Brasília - DF</t>
         </is>
       </c>
       <c r="B274" t="n">
-        <v>1525127</v>
+        <v>1470000</v>
       </c>
       <c r="C274" t="n">
         <v>3</v>
       </c>
       <c r="D274" t="n">
-        <v>0.6184622468080472</v>
+        <v>1.072</v>
+      </c>
+      <c r="E274" t="n">
+        <v>57</v>
+      </c>
+      <c r="F274" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>Alameda Dos Eucaliptos Quadra 107, Norte, Águas Claras, Brasília - DF</t>
+          <t>Rua Das Paineiras, Norte, Águas Claras, Brasília - DF</t>
         </is>
       </c>
       <c r="B275" t="n">
-        <v>1470000</v>
+        <v>1350000</v>
       </c>
       <c r="C275" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D275" t="n">
-        <v>1.072</v>
+        <v>0.983</v>
+      </c>
+      <c r="E275" t="n">
+        <v>53</v>
+      </c>
+      <c r="F275" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>Rua Das Paineiras, Norte, Águas Claras, Brasília - DF</t>
+          <t>Rua 8, Norte, Águas Claras, Brasília - DF</t>
         </is>
       </c>
       <c r="B276" t="n">
-        <v>1350000</v>
+        <v>1200000</v>
       </c>
       <c r="C276" t="n">
         <v>4</v>
       </c>
       <c r="D276" t="n">
-        <v>0.983</v>
+        <v>2</v>
+      </c>
+      <c r="E276" t="n">
+        <v>69</v>
+      </c>
+      <c r="F276" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>Rua 8, Norte, Águas Claras, Brasília - DF</t>
+          <t>Rua 28, Sul, Águas Claras, Brasília - DF</t>
         </is>
       </c>
       <c r="B277" t="n">
-        <v>1200000</v>
+        <v>1560000</v>
       </c>
       <c r="C277" t="n">
         <v>4</v>
       </c>
       <c r="D277" t="n">
-        <v>2</v>
+        <v>1.036610664272785</v>
+      </c>
+      <c r="E277" t="n">
+        <v>77</v>
+      </c>
+      <c r="F277" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>Rua 28, Sul, Águas Claras, Brasília - DF</t>
+          <t>Rua 4, Norte, Águas Claras, Brasília - DF</t>
         </is>
       </c>
       <c r="B278" t="n">
-        <v>1560000</v>
+        <v>1659000</v>
       </c>
       <c r="C278" t="n">
         <v>4</v>
       </c>
       <c r="D278" t="n">
-        <v>1.036610664272785</v>
+        <v>0.2711947780478455</v>
+      </c>
+      <c r="E278" t="n">
+        <v>57</v>
+      </c>
+      <c r="F278" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Rua 4, Norte, Águas Claras, Brasília - DF</t>
+          <t>Rua 25, Norte, Águas Claras, Brasília - DF</t>
         </is>
       </c>
       <c r="B279" t="n">
-        <v>1659000</v>
+        <v>1450000</v>
       </c>
       <c r="C279" t="n">
         <v>4</v>
       </c>
       <c r="D279" t="n">
-        <v>0.2711947780478455</v>
+        <v>0.3793745008409976</v>
+      </c>
+      <c r="E279" t="n">
+        <v>49</v>
+      </c>
+      <c r="F279" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>Rua 25, Norte, Águas Claras, Brasília - DF</t>
+          <t>Rua 19, Sul, Águas Claras, Brasília - DF</t>
         </is>
       </c>
       <c r="B280" t="n">
-        <v>1450000</v>
+        <v>1249000</v>
       </c>
       <c r="C280" t="n">
         <v>4</v>
       </c>
       <c r="D280" t="n">
-        <v>0.3793745008409976</v>
+        <v>1.036610664272785</v>
+      </c>
+      <c r="E280" t="n">
+        <v>54</v>
+      </c>
+      <c r="F280" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Rua 19, Sul, Águas Claras, Brasília - DF</t>
+          <t>Rua 33, Sul, Águas Claras, Brasília - DF</t>
         </is>
       </c>
       <c r="B281" t="n">
-        <v>1249000</v>
+        <v>1375000</v>
       </c>
       <c r="C281" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D281" t="n">
         <v>1.036610664272785</v>
       </c>
+      <c r="E281" t="n">
+        <v>70</v>
+      </c>
+      <c r="F281" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>Rua 33, Sul, Águas Claras, Brasília - DF</t>
+          <t>Avenida Das Araucárias, Sul, Águas Claras, Brasília - DF</t>
         </is>
       </c>
       <c r="B282" t="n">
-        <v>1375000</v>
+        <v>1220000</v>
       </c>
       <c r="C282" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D282" t="n">
-        <v>1.036610664272785</v>
+        <v>2</v>
+      </c>
+      <c r="E282" t="n">
+        <v>61</v>
+      </c>
+      <c r="F282" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>Avenida Das Araucárias, Sul, Águas Claras, Brasília - DF</t>
+          <t>Rua 28, Sul, Águas Claras, Brasília - DF</t>
         </is>
       </c>
       <c r="B283" t="n">
-        <v>1220000</v>
+        <v>1690000</v>
       </c>
       <c r="C283" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D283" t="n">
-        <v>2</v>
+        <v>1.036610664272785</v>
+      </c>
+      <c r="E283" t="n">
+        <v>77</v>
+      </c>
+      <c r="F283" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Rua 28, Sul, Águas Claras, Brasília - DF</t>
+          <t>Rua 13, Norte, Águas Claras, Brasília - DF</t>
         </is>
       </c>
       <c r="B284" t="n">
-        <v>1690000</v>
+        <v>1400000</v>
       </c>
       <c r="C284" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D284" t="n">
-        <v>1.036610664272785</v>
+        <v>0.767</v>
+      </c>
+      <c r="E284" t="n">
+        <v>110</v>
+      </c>
+      <c r="F284" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>Rua 13, Norte, Águas Claras, Brasília - DF</t>
+          <t>Quadra 204, Sul, Águas Claras, Brasília - DF</t>
         </is>
       </c>
       <c r="B285" t="n">
-        <v>1400000</v>
+        <v>1550000</v>
       </c>
       <c r="C285" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D285" t="n">
-        <v>0.767</v>
+        <v>0.882</v>
+      </c>
+      <c r="E285" t="n">
+        <v>61</v>
+      </c>
+      <c r="F285" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>Quadra 204, Sul, Águas Claras, Brasília - DF</t>
+          <t>Avenida Das Araucárias, Sul, Águas Claras, Brasília - DF</t>
         </is>
       </c>
       <c r="B286" t="n">
-        <v>1550000</v>
+        <v>1746000</v>
       </c>
       <c r="C286" t="n">
         <v>4</v>
       </c>
       <c r="D286" t="n">
-        <v>0.882</v>
+        <v>0.337</v>
+      </c>
+      <c r="E286" t="n">
+        <v>61</v>
+      </c>
+      <c r="F286" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>Avenida Das Araucárias, Sul, Águas Claras, Brasília - DF</t>
+          <t>Rua 36, Sul, Águas Claras, Brasília - DF</t>
         </is>
       </c>
       <c r="B287" t="n">
-        <v>1746000</v>
+        <v>1250000</v>
       </c>
       <c r="C287" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D287" t="n">
-        <v>0.337</v>
+        <v>1.036610664272785</v>
+      </c>
+      <c r="E287" t="n">
+        <v>66</v>
+      </c>
+      <c r="F287" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Rua 36, Sul, Águas Claras, Brasília - DF</t>
+          <t>Rua 28, Norte, Águas Claras, Brasília - DF</t>
         </is>
       </c>
       <c r="B288" t="n">
-        <v>1250000</v>
+        <v>1300000</v>
       </c>
       <c r="C288" t="n">
         <v>3</v>
       </c>
       <c r="D288" t="n">
-        <v>1.036610664272785</v>
+        <v>2</v>
+      </c>
+      <c r="E288" t="n">
+        <v>69</v>
+      </c>
+      <c r="F288" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Rua 28, Norte, Águas Claras, Brasília - DF</t>
+          <t>Rua 22, Norte, Águas Claras, Brasília - DF</t>
         </is>
       </c>
       <c r="B289" t="n">
-        <v>1300000</v>
+        <v>1420000</v>
       </c>
       <c r="C289" t="n">
         <v>3</v>
       </c>
       <c r="D289" t="n">
+        <v>1.424</v>
+      </c>
+      <c r="E289" t="n">
+        <v>67</v>
+      </c>
+      <c r="F289" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>Rua 22, Norte, Águas Claras, Brasília - DF</t>
+          <t>Rua Alecrim, Sul, Águas Claras, Brasília - DF</t>
         </is>
       </c>
       <c r="B290" t="n">
-        <v>1420000</v>
+        <v>1380000</v>
       </c>
       <c r="C290" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D290" t="n">
-        <v>1.424</v>
+        <v>1.046</v>
+      </c>
+      <c r="E290" t="n">
+        <v>47</v>
+      </c>
+      <c r="F290" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>Rua Alecrim, Sul, Águas Claras, Brasília - DF</t>
+          <t>Avenida Das Araucárias, Sul, Águas Claras, Brasília - DF</t>
         </is>
       </c>
       <c r="B291" t="n">
-        <v>1380000</v>
+        <v>1220000</v>
       </c>
       <c r="C291" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D291" t="n">
-        <v>1.046</v>
+        <v>2</v>
+      </c>
+      <c r="E291" t="n">
+        <v>61</v>
+      </c>
+      <c r="F291" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>Avenida Das Araucárias, Sul, Águas Claras, Brasília - DF</t>
+          <t>Rua 36, Sul, Águas Claras, Brasília - DF</t>
         </is>
       </c>
       <c r="B292" t="n">
-        <v>1220000</v>
+        <v>1375000</v>
       </c>
       <c r="C292" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D292" t="n">
+        <v>1.036610664272785</v>
+      </c>
+      <c r="E292" t="n">
+        <v>66</v>
+      </c>
+      <c r="F292" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5118,7 +6874,7 @@
         </is>
       </c>
       <c r="B293" t="n">
-        <v>1375000</v>
+        <v>1400000</v>
       </c>
       <c r="C293" t="n">
         <v>3</v>
@@ -5126,37 +6882,55 @@
       <c r="D293" t="n">
         <v>1.036610664272785</v>
       </c>
+      <c r="E293" t="n">
+        <v>66</v>
+      </c>
+      <c r="F293" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Rua 36, Sul, Águas Claras, Brasília - DF</t>
+          <t>Rua 28, Norte, Águas Claras, Brasília - DF</t>
         </is>
       </c>
       <c r="B294" t="n">
-        <v>1400000</v>
+        <v>1320000</v>
       </c>
       <c r="C294" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D294" t="n">
-        <v>1.036610664272785</v>
+        <v>1.941</v>
+      </c>
+      <c r="E294" t="n">
+        <v>69</v>
+      </c>
+      <c r="F294" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>Rua 28, Norte, Águas Claras, Brasília - DF</t>
+          <t>Avenida Das Araucárias, Sul, Águas Claras, Brasília - DF</t>
         </is>
       </c>
       <c r="B295" t="n">
-        <v>1320000</v>
+        <v>1470900</v>
       </c>
       <c r="C295" t="n">
         <v>4</v>
       </c>
       <c r="D295" t="n">
-        <v>1.941</v>
+        <v>1.111</v>
+      </c>
+      <c r="E295" t="n">
+        <v>61</v>
+      </c>
+      <c r="F295" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="296">
@@ -5166,109 +6940,151 @@
         </is>
       </c>
       <c r="B296" t="n">
-        <v>1470900</v>
+        <v>1220000</v>
       </c>
       <c r="C296" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D296" t="n">
-        <v>1.111</v>
+        <v>1.904</v>
+      </c>
+      <c r="E296" t="n">
+        <v>61</v>
+      </c>
+      <c r="F296" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>Avenida Das Araucárias, Sul, Águas Claras, Brasília - DF</t>
+          <t>Rua 31, Norte, Águas Claras, Brasília - DF</t>
         </is>
       </c>
       <c r="B297" t="n">
-        <v>1220000</v>
+        <v>1520000</v>
       </c>
       <c r="C297" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D297" t="n">
-        <v>1.904</v>
+        <v>0.988</v>
+      </c>
+      <c r="E297" t="n">
+        <v>126</v>
+      </c>
+      <c r="F297" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>Rua 31, Norte, Águas Claras, Brasília - DF</t>
+          <t>Quadra 204, Sul, Águas Claras, Brasília - DF</t>
         </is>
       </c>
       <c r="B298" t="n">
-        <v>1520000</v>
+        <v>1550000</v>
       </c>
       <c r="C298" t="n">
         <v>4</v>
       </c>
       <c r="D298" t="n">
-        <v>0.988</v>
+        <v>0.793</v>
+      </c>
+      <c r="E298" t="n">
+        <v>61</v>
+      </c>
+      <c r="F298" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Quadra 204, Sul, Águas Claras, Brasília - DF</t>
+          <t>Avenida Parque Águas Claras, Norte, Águas Claras, Brasília - DF</t>
         </is>
       </c>
       <c r="B299" t="n">
-        <v>1550000</v>
+        <v>1520000</v>
       </c>
       <c r="C299" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D299" t="n">
-        <v>0.793</v>
+        <v>1.249</v>
+      </c>
+      <c r="E299" t="n">
+        <v>71</v>
+      </c>
+      <c r="F299" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>Avenida Parque Águas Claras, Norte, Águas Claras, Brasília - DF</t>
+          <t>Rua 13, Norte, Águas Claras, Brasília - DF</t>
         </is>
       </c>
       <c r="B300" t="n">
-        <v>1520000</v>
+        <v>1700000</v>
       </c>
       <c r="C300" t="n">
         <v>3</v>
       </c>
       <c r="D300" t="n">
-        <v>1.249</v>
+        <v>0.485</v>
+      </c>
+      <c r="E300" t="n">
+        <v>110</v>
+      </c>
+      <c r="F300" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>Rua 13, Norte, Águas Claras, Brasília - DF</t>
+          <t>Rua 36, Sul, Águas Claras, Brasília - DF</t>
         </is>
       </c>
       <c r="B301" t="n">
-        <v>1700000</v>
+        <v>1250000</v>
       </c>
       <c r="C301" t="n">
         <v>3</v>
       </c>
       <c r="D301" t="n">
-        <v>0.485</v>
+        <v>1.036610664272785</v>
+      </c>
+      <c r="E301" t="n">
+        <v>66</v>
+      </c>
+      <c r="F301" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>Rua 36, Sul, Águas Claras, Brasília - DF</t>
+          <t>Avenida Das Araucárias, Sul, Águas Claras, Brasília - DF</t>
         </is>
       </c>
       <c r="B302" t="n">
-        <v>1250000</v>
+        <v>1359000</v>
       </c>
       <c r="C302" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D302" t="n">
-        <v>1.036610664272785</v>
+        <v>1.805</v>
+      </c>
+      <c r="E302" t="n">
+        <v>61</v>
+      </c>
+      <c r="F302" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="303">
@@ -5278,115 +7094,157 @@
         </is>
       </c>
       <c r="B303" t="n">
-        <v>1359000</v>
+        <v>1650000</v>
       </c>
       <c r="C303" t="n">
         <v>4</v>
       </c>
       <c r="D303" t="n">
-        <v>1.805</v>
+        <v>0.491</v>
+      </c>
+      <c r="E303" t="n">
+        <v>61</v>
+      </c>
+      <c r="F303" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Avenida Das Araucárias, Sul, Águas Claras, Brasília - DF</t>
+          <t>Rua 19, Sul, Águas Claras, Brasília - DF</t>
         </is>
       </c>
       <c r="B304" t="n">
-        <v>1650000</v>
+        <v>1312000</v>
       </c>
       <c r="C304" t="n">
         <v>4</v>
       </c>
       <c r="D304" t="n">
-        <v>0.491</v>
+        <v>1.036610664272785</v>
+      </c>
+      <c r="E304" t="n">
+        <v>54</v>
+      </c>
+      <c r="F304" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>Rua 19, Sul, Águas Claras, Brasília - DF</t>
+          <t>Quadra 105, Norte, Águas Claras, Brasília - DF</t>
         </is>
       </c>
       <c r="B305" t="n">
-        <v>1312000</v>
+        <v>1200000</v>
       </c>
       <c r="C305" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D305" t="n">
-        <v>1.036610664272785</v>
+        <v>0.6184622468080472</v>
+      </c>
+      <c r="E305" t="n">
+        <v>84</v>
+      </c>
+      <c r="F305" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>Quadra 105, Norte, Águas Claras, Brasília - DF</t>
+          <t>Rua 28, Norte, Águas Claras, Brasília - DF</t>
         </is>
       </c>
       <c r="B306" t="n">
-        <v>1200000</v>
+        <v>1415000</v>
       </c>
       <c r="C306" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D306" t="n">
-        <v>0.6184622468080472</v>
+        <v>1.36</v>
+      </c>
+      <c r="E306" t="n">
+        <v>69</v>
+      </c>
+      <c r="F306" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>Rua 28, Norte, Águas Claras, Brasília - DF</t>
+          <t>Quadra 101, Norte, Águas Claras, Brasília - DF</t>
         </is>
       </c>
       <c r="B307" t="n">
-        <v>1415000</v>
+        <v>1600000</v>
       </c>
       <c r="C307" t="n">
         <v>4</v>
       </c>
       <c r="D307" t="n">
-        <v>1.36</v>
+        <v>0.441</v>
+      </c>
+      <c r="E307" t="n">
+        <v>64</v>
+      </c>
+      <c r="F307" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>Quadra 101, Norte, Águas Claras, Brasília - DF</t>
+          <t>Rua 25, Sul, Águas Claras, Brasília - DF</t>
         </is>
       </c>
       <c r="B308" t="n">
-        <v>1600000</v>
+        <v>1200000</v>
       </c>
       <c r="C308" t="n">
         <v>4</v>
       </c>
       <c r="D308" t="n">
-        <v>0.441</v>
+        <v>1.036610664272785</v>
+      </c>
+      <c r="E308" t="n">
+        <v>60</v>
+      </c>
+      <c r="F308" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Rua 25, Sul, Águas Claras, Brasília - DF</t>
+          <t>Alameda Dos Eucaliptos Quadra 107, Norte, Águas Claras, Brasília - DF</t>
         </is>
       </c>
       <c r="B309" t="n">
-        <v>1200000</v>
+        <v>1420000</v>
       </c>
       <c r="C309" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D309" t="n">
-        <v>1.036610664272785</v>
+        <v>1.182</v>
+      </c>
+      <c r="E309" t="n">
+        <v>57</v>
+      </c>
+      <c r="F309" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>Alameda Dos Eucaliptos Quadra 107, Norte, Águas Claras, Brasília - DF</t>
+          <t>Alameda Das Acácias Quadra 107, Norte, Águas Claras, Brasília - DF</t>
         </is>
       </c>
       <c r="B310" t="n">
@@ -5396,119 +7254,167 @@
         <v>3</v>
       </c>
       <c r="D310" t="n">
-        <v>1.182</v>
+        <v>1.34</v>
+      </c>
+      <c r="E310" t="n">
+        <v>64</v>
+      </c>
+      <c r="F310" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>Alameda Das Acácias Quadra 107, Norte, Águas Claras, Brasília - DF</t>
+          <t>Quadra 101, Norte, Águas Claras, Brasília - DF</t>
         </is>
       </c>
       <c r="B311" t="n">
-        <v>1420000</v>
+        <v>1799000</v>
       </c>
       <c r="C311" t="n">
         <v>3</v>
       </c>
       <c r="D311" t="n">
-        <v>1.34</v>
+        <v>0.1</v>
+      </c>
+      <c r="E311" t="n">
+        <v>64</v>
+      </c>
+      <c r="F311" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>Quadra 101, Norte, Águas Claras, Brasília - DF</t>
+          <t>Rua Das Carnaubas, Norte, Águas Claras, Brasília - DF</t>
         </is>
       </c>
       <c r="B312" t="n">
-        <v>1799000</v>
+        <v>1650000</v>
       </c>
       <c r="C312" t="n">
         <v>3</v>
       </c>
       <c r="D312" t="n">
-        <v>0.1</v>
+        <v>0.9320000000000001</v>
+      </c>
+      <c r="E312" t="n">
+        <v>63</v>
+      </c>
+      <c r="F312" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>Rua Das Carnaubas, Norte, Águas Claras, Brasília - DF</t>
+          <t>Rua 36, Sul, Águas Claras, Brasília - DF</t>
         </is>
       </c>
       <c r="B313" t="n">
-        <v>1650000</v>
+        <v>1300000</v>
       </c>
       <c r="C313" t="n">
         <v>3</v>
       </c>
       <c r="D313" t="n">
-        <v>0.9320000000000001</v>
+        <v>1.036610664272785</v>
+      </c>
+      <c r="E313" t="n">
+        <v>66</v>
+      </c>
+      <c r="F313" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Rua 36, Sul, Águas Claras, Brasília - DF</t>
+          <t>Qs 5 Rua 400, Areal, Águas Claras, Brasília - DF</t>
         </is>
       </c>
       <c r="B314" t="n">
-        <v>1300000</v>
+        <v>1699000</v>
       </c>
       <c r="C314" t="n">
         <v>3</v>
       </c>
       <c r="D314" t="n">
-        <v>1.036610664272785</v>
+        <v>0.542</v>
+      </c>
+      <c r="E314" t="n">
+        <v>59</v>
+      </c>
+      <c r="F314" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>Qs 5 Rua 400, Areal, Águas Claras, Brasília - DF</t>
+          <t>Rua 27, Norte, Águas Claras, Brasília - DF</t>
         </is>
       </c>
       <c r="B315" t="n">
-        <v>1699000</v>
+        <v>1377000</v>
       </c>
       <c r="C315" t="n">
         <v>3</v>
       </c>
       <c r="D315" t="n">
-        <v>0.542</v>
+        <v>1.672</v>
+      </c>
+      <c r="E315" t="n">
+        <v>101</v>
+      </c>
+      <c r="F315" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>Rua 27, Norte, Águas Claras, Brasília - DF</t>
+          <t>Rua 19, Sul, Águas Claras, Brasília - DF</t>
         </is>
       </c>
       <c r="B316" t="n">
-        <v>1377000</v>
+        <v>1312000</v>
       </c>
       <c r="C316" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D316" t="n">
-        <v>1.672</v>
+        <v>1.036610664272785</v>
+      </c>
+      <c r="E316" t="n">
+        <v>54</v>
+      </c>
+      <c r="F316" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>Rua 19, Sul, Águas Claras, Brasília - DF</t>
+          <t>Rua Das Paineiras, Norte, Águas Claras, Brasília - DF</t>
         </is>
       </c>
       <c r="B317" t="n">
-        <v>1312000</v>
+        <v>1700000</v>
       </c>
       <c r="C317" t="n">
         <v>4</v>
       </c>
       <c r="D317" t="n">
-        <v>1.036610664272785</v>
+        <v>0.588</v>
+      </c>
+      <c r="E317" t="n">
+        <v>53</v>
+      </c>
+      <c r="F317" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="318">
@@ -5518,621 +7424,833 @@
         </is>
       </c>
       <c r="B318" t="n">
-        <v>1700000</v>
+        <v>1400000</v>
       </c>
       <c r="C318" t="n">
         <v>4</v>
       </c>
       <c r="D318" t="n">
-        <v>0.588</v>
+        <v>1.037</v>
+      </c>
+      <c r="E318" t="n">
+        <v>53</v>
+      </c>
+      <c r="F318" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Rua Das Paineiras, Norte, Águas Claras, Brasília - DF</t>
+          <t>Rua 13, Norte, Águas Claras, Brasília - DF</t>
         </is>
       </c>
       <c r="B319" t="n">
-        <v>1400000</v>
+        <v>1550000</v>
       </c>
       <c r="C319" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D319" t="n">
-        <v>1.037</v>
+        <v>1.423</v>
+      </c>
+      <c r="E319" t="n">
+        <v>110</v>
+      </c>
+      <c r="F319" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>Rua 13, Norte, Águas Claras, Brasília - DF</t>
+          <t>Rua 28, Norte, Águas Claras, Brasília - DF</t>
         </is>
       </c>
       <c r="B320" t="n">
-        <v>1550000</v>
+        <v>1300000</v>
       </c>
       <c r="C320" t="n">
         <v>3</v>
       </c>
       <c r="D320" t="n">
-        <v>1.423</v>
+        <v>1.412</v>
+      </c>
+      <c r="E320" t="n">
+        <v>69</v>
+      </c>
+      <c r="F320" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>Rua 28, Norte, Águas Claras, Brasília - DF</t>
+          <t>Rua Babaçu, Sul, Águas Claras, Brasília - DF</t>
         </is>
       </c>
       <c r="B321" t="n">
-        <v>1300000</v>
+        <v>1495000</v>
       </c>
       <c r="C321" t="n">
         <v>3</v>
       </c>
       <c r="D321" t="n">
-        <v>1.412</v>
+        <v>0.828</v>
+      </c>
+      <c r="E321" t="n">
+        <v>68</v>
+      </c>
+      <c r="F321" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>Rua Babaçu, Sul, Águas Claras, Brasília - DF</t>
+          <t>Rua 20, Sul, Águas Claras, Brasília - DF</t>
         </is>
       </c>
       <c r="B322" t="n">
-        <v>1495000</v>
+        <v>1300000</v>
       </c>
       <c r="C322" t="n">
         <v>3</v>
       </c>
       <c r="D322" t="n">
-        <v>0.828</v>
+        <v>1.036610664272785</v>
+      </c>
+      <c r="E322" t="n">
+        <v>64</v>
+      </c>
+      <c r="F322" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>Rua 20, Sul, Águas Claras, Brasília - DF</t>
+          <t>Rua Manaca, Norte, Águas Claras, Brasília - DF</t>
         </is>
       </c>
       <c r="B323" t="n">
-        <v>1300000</v>
+        <v>1335000</v>
       </c>
       <c r="C323" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D323" t="n">
-        <v>1.036610664272785</v>
+        <v>1.982</v>
+      </c>
+      <c r="E323" t="n">
+        <v>59</v>
+      </c>
+      <c r="F323" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Rua Manaca, Norte, Águas Claras, Brasília - DF</t>
+          <t>Avenida Pau Brasil, Sul, Águas Claras, Brasília - DF</t>
         </is>
       </c>
       <c r="B324" t="n">
-        <v>1335000</v>
+        <v>1295000</v>
       </c>
       <c r="C324" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D324" t="n">
-        <v>1.982</v>
+        <v>0.1353687369268037</v>
+      </c>
+      <c r="E324" t="n">
+        <v>58</v>
+      </c>
+      <c r="F324" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>Avenida Pau Brasil, Sul, Águas Claras, Brasília - DF</t>
+          <t>Rua 28, Sul, Águas Claras, Brasília - DF</t>
         </is>
       </c>
       <c r="B325" t="n">
-        <v>1295000</v>
+        <v>1230000</v>
       </c>
       <c r="C325" t="n">
         <v>4</v>
       </c>
       <c r="D325" t="n">
-        <v>0.1353687369268037</v>
+        <v>1.036610664272785</v>
+      </c>
+      <c r="E325" t="n">
+        <v>77</v>
+      </c>
+      <c r="F325" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>Rua 28, Sul, Águas Claras, Brasília - DF</t>
+          <t>Avenida Das Araucárias, Sul, Águas Claras, Brasília - DF</t>
         </is>
       </c>
       <c r="B326" t="n">
-        <v>1230000</v>
+        <v>1390000</v>
       </c>
       <c r="C326" t="n">
         <v>4</v>
       </c>
       <c r="D326" t="n">
-        <v>1.036610664272785</v>
+        <v>1.607</v>
+      </c>
+      <c r="E326" t="n">
+        <v>61</v>
+      </c>
+      <c r="F326" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>Avenida Das Araucárias, Sul, Águas Claras, Brasília - DF</t>
+          <t>Quadra 204, Sul, Águas Claras, Brasília - DF</t>
         </is>
       </c>
       <c r="B327" t="n">
-        <v>1390000</v>
+        <v>1450000</v>
       </c>
       <c r="C327" t="n">
         <v>4</v>
       </c>
       <c r="D327" t="n">
-        <v>1.607</v>
+        <v>1.703</v>
+      </c>
+      <c r="E327" t="n">
+        <v>61</v>
+      </c>
+      <c r="F327" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>Quadra 204, Sul, Águas Claras, Brasília - DF</t>
+          <t>Rua 36, Sul, Águas Claras, Brasília - DF</t>
         </is>
       </c>
       <c r="B328" t="n">
-        <v>1450000</v>
+        <v>1250000</v>
       </c>
       <c r="C328" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D328" t="n">
-        <v>1.703</v>
+        <v>1.036610664272785</v>
+      </c>
+      <c r="E328" t="n">
+        <v>66</v>
+      </c>
+      <c r="F328" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>Rua 36, Sul, Águas Claras, Brasília - DF</t>
+          <t>Rua 13, Norte, Águas Claras, Brasília - DF</t>
         </is>
       </c>
       <c r="B329" t="n">
-        <v>1250000</v>
+        <v>1330000</v>
       </c>
       <c r="C329" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D329" t="n">
-        <v>1.036610664272785</v>
+        <v>2</v>
+      </c>
+      <c r="E329" t="n">
+        <v>110</v>
+      </c>
+      <c r="F329" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>Rua 13, Norte, Águas Claras, Brasília - DF</t>
+          <t>Rua 5, Sul, Águas Claras, Brasília - DF</t>
         </is>
       </c>
       <c r="B330" t="n">
-        <v>1330000</v>
+        <v>1300000</v>
       </c>
       <c r="C330" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D330" t="n">
+        <v>1.036610664272785</v>
+      </c>
+      <c r="E330" t="n">
+        <v>66</v>
+      </c>
+      <c r="F330" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>Rua 5, Sul, Águas Claras, Brasília - DF</t>
+          <t>Quadra 105, Norte, Águas Claras, Brasília - DF</t>
         </is>
       </c>
       <c r="B331" t="n">
-        <v>1300000</v>
+        <v>1200000</v>
       </c>
       <c r="C331" t="n">
         <v>3</v>
       </c>
       <c r="D331" t="n">
-        <v>1.036610664272785</v>
+        <v>0.6184622468080472</v>
+      </c>
+      <c r="E331" t="n">
+        <v>84</v>
+      </c>
+      <c r="F331" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>Quadra 105, Norte, Águas Claras, Brasília - DF</t>
+          <t>Avenida Pau Brasil, Sul, Águas Claras, Brasília - DF</t>
         </is>
       </c>
       <c r="B332" t="n">
-        <v>1200000</v>
+        <v>1450000</v>
       </c>
       <c r="C332" t="n">
         <v>3</v>
       </c>
       <c r="D332" t="n">
-        <v>0.6184622468080472</v>
+        <v>0.1353687369268037</v>
+      </c>
+      <c r="E332" t="n">
+        <v>58</v>
+      </c>
+      <c r="F332" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>Avenida Pau Brasil, Sul, Águas Claras, Brasília - DF</t>
+          <t>Quadra 204, Sul, Águas Claras, Brasília - DF</t>
         </is>
       </c>
       <c r="B333" t="n">
-        <v>1450000</v>
+        <v>1550000</v>
       </c>
       <c r="C333" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D333" t="n">
-        <v>0.1353687369268037</v>
+        <v>1.258</v>
+      </c>
+      <c r="E333" t="n">
+        <v>61</v>
+      </c>
+      <c r="F333" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>Quadra 204, Sul, Águas Claras, Brasília - DF</t>
+          <t>Quadra 207, Sul, Águas Claras, Brasília - DF</t>
         </is>
       </c>
       <c r="B334" t="n">
-        <v>1550000</v>
+        <v>1690000</v>
       </c>
       <c r="C334" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D334" t="n">
-        <v>1.258</v>
+        <v>0.1</v>
+      </c>
+      <c r="E334" t="n">
+        <v>68</v>
+      </c>
+      <c r="F334" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>Quadra 207, Sul, Águas Claras, Brasília - DF</t>
+          <t>Quadra 105, Norte, Águas Claras, Brasília - DF</t>
         </is>
       </c>
       <c r="B335" t="n">
-        <v>1690000</v>
+        <v>1600000</v>
       </c>
       <c r="C335" t="n">
         <v>3</v>
       </c>
       <c r="D335" t="n">
-        <v>0.1</v>
+        <v>0.6184622468080472</v>
+      </c>
+      <c r="E335" t="n">
+        <v>84</v>
+      </c>
+      <c r="F335" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>Quadra 105, Norte, Águas Claras, Brasília - DF</t>
+          <t>Avenida Parque Águas Claras, Sul, Águas Claras, Brasília - DF</t>
         </is>
       </c>
       <c r="B336" t="n">
-        <v>1600000</v>
+        <v>1390000</v>
       </c>
       <c r="C336" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D336" t="n">
-        <v>0.6184622468080472</v>
+        <v>1.032</v>
+      </c>
+      <c r="E336" t="n">
+        <v>77</v>
+      </c>
+      <c r="F336" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>Avenida Parque Águas Claras, Sul, Águas Claras, Brasília - DF</t>
+          <t>Quadra 204, Sul, Águas Claras, Brasília - DF</t>
         </is>
       </c>
       <c r="B337" t="n">
-        <v>1390000</v>
+        <v>1720000</v>
       </c>
       <c r="C337" t="n">
         <v>4</v>
       </c>
       <c r="D337" t="n">
-        <v>1.032</v>
+        <v>0.305</v>
+      </c>
+      <c r="E337" t="n">
+        <v>61</v>
+      </c>
+      <c r="F337" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>Quadra 204, Sul, Águas Claras, Brasília - DF</t>
+          <t>Rua 26, Norte, Águas Claras, Brasília - DF</t>
         </is>
       </c>
       <c r="B338" t="n">
-        <v>1720000</v>
+        <v>1250000</v>
       </c>
       <c r="C338" t="n">
         <v>4</v>
       </c>
       <c r="D338" t="n">
-        <v>0.305</v>
+        <v>2</v>
+      </c>
+      <c r="E338" t="n">
+        <v>103</v>
+      </c>
+      <c r="F338" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>Rua 26, Norte, Águas Claras, Brasília - DF</t>
+          <t>Rua Buriti, Norte, Águas Claras, Brasília - DF</t>
         </is>
       </c>
       <c r="B339" t="n">
-        <v>1250000</v>
+        <v>1400000</v>
       </c>
       <c r="C339" t="n">
         <v>4</v>
       </c>
       <c r="D339" t="n">
+        <v>1.517</v>
+      </c>
+      <c r="E339" t="n">
+        <v>61</v>
+      </c>
+      <c r="F339" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>Rua Buriti, Norte, Águas Claras, Brasília - DF</t>
+          <t>Avenida Flamboyant, Norte, Águas Claras, Brasília - DF</t>
         </is>
       </c>
       <c r="B340" t="n">
-        <v>1400000</v>
+        <v>1490000</v>
       </c>
       <c r="C340" t="n">
         <v>4</v>
       </c>
       <c r="D340" t="n">
-        <v>1.517</v>
+        <v>1.169</v>
+      </c>
+      <c r="E340" t="n">
+        <v>58</v>
+      </c>
+      <c r="F340" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>Avenida Flamboyant, Norte, Águas Claras, Brasília - DF</t>
+          <t>Rua 28, Norte, Águas Claras, Brasília - DF</t>
         </is>
       </c>
       <c r="B341" t="n">
-        <v>1490000</v>
+        <v>1300000</v>
       </c>
       <c r="C341" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D341" t="n">
-        <v>1.169</v>
+        <v>1.385</v>
+      </c>
+      <c r="E341" t="n">
+        <v>69</v>
+      </c>
+      <c r="F341" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>Rua 28, Norte, Águas Claras, Brasília - DF</t>
+          <t>Avenida Das Araucárias, Sul, Águas Claras, Brasília - DF</t>
         </is>
       </c>
       <c r="B342" t="n">
-        <v>1300000</v>
+        <v>1530000</v>
       </c>
       <c r="C342" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D342" t="n">
-        <v>1.385</v>
+        <v>0.474</v>
+      </c>
+      <c r="E342" t="n">
+        <v>61</v>
+      </c>
+      <c r="F342" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>Avenida Das Araucárias, Sul, Águas Claras, Brasília - DF</t>
+          <t>Rua 5, Sul, Águas Claras, Brasília - DF</t>
         </is>
       </c>
       <c r="B343" t="n">
-        <v>1530000</v>
+        <v>1200000</v>
       </c>
       <c r="C343" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D343" t="n">
-        <v>0.474</v>
+        <v>1.036610664272785</v>
+      </c>
+      <c r="E343" t="n">
+        <v>66</v>
+      </c>
+      <c r="F343" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>Rua 5, Sul, Águas Claras, Brasília - DF</t>
+          <t>Rua 21, Norte, Águas Claras, Brasília - DF</t>
         </is>
       </c>
       <c r="B344" t="n">
-        <v>1200000</v>
+        <v>1790000</v>
       </c>
       <c r="C344" t="n">
         <v>3</v>
       </c>
       <c r="D344" t="n">
-        <v>1.036610664272785</v>
+        <v>0.503</v>
+      </c>
+      <c r="E344" t="n">
+        <v>73</v>
+      </c>
+      <c r="F344" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>Rua 21, Norte, Águas Claras, Brasília - DF</t>
+          <t>Rua 19, Norte, Águas Claras, Brasília - DF</t>
         </is>
       </c>
       <c r="B345" t="n">
-        <v>1790000</v>
+        <v>1700000</v>
       </c>
       <c r="C345" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D345" t="n">
-        <v>0.503</v>
+        <v>0.621</v>
+      </c>
+      <c r="E345" t="n">
+        <v>69</v>
+      </c>
+      <c r="F345" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>Rua 19, Norte, Águas Claras, Brasília - DF</t>
+          <t>Quadra 107, Norte, Águas Claras, Brasília - DF</t>
         </is>
       </c>
       <c r="B346" t="n">
-        <v>1700000</v>
+        <v>1250000</v>
       </c>
       <c r="C346" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D346" t="n">
-        <v>0.621</v>
+        <v>1.726</v>
+      </c>
+      <c r="E346" t="n">
+        <v>58</v>
+      </c>
+      <c r="F346" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>Quadra 107, Norte, Águas Claras, Brasília - DF</t>
+          <t>Quadra 201, Sul, Águas Claras, Brasília - DF</t>
         </is>
       </c>
       <c r="B347" t="n">
-        <v>1250000</v>
+        <v>1279000</v>
       </c>
       <c r="C347" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D347" t="n">
-        <v>1.726</v>
+        <v>2</v>
+      </c>
+      <c r="E347" t="n">
+        <v>75</v>
+      </c>
+      <c r="F347" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>Quadra 201, Sul, Águas Claras, Brasília - DF</t>
+          <t>Rua 13, Norte, Águas Claras, Brasília - DF</t>
         </is>
       </c>
       <c r="B348" t="n">
-        <v>1279000</v>
+        <v>1390000</v>
       </c>
       <c r="C348" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D348" t="n">
+        <v>1.051</v>
+      </c>
+      <c r="E348" t="n">
+        <v>110</v>
+      </c>
+      <c r="F348" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>Rua 13, Norte, Águas Claras, Brasília - DF</t>
+          <t>Rua 9, Sul, Águas Claras, Brasília - DF</t>
         </is>
       </c>
       <c r="B349" t="n">
-        <v>1390000</v>
+        <v>1300000</v>
       </c>
       <c r="C349" t="n">
         <v>3</v>
       </c>
       <c r="D349" t="n">
-        <v>1.051</v>
+        <v>0.2664786477687058</v>
+      </c>
+      <c r="E349" t="n">
+        <v>64</v>
+      </c>
+      <c r="F349" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>Rua 9, Sul, Águas Claras, Brasília - DF</t>
+          <t>Quadra 102, Norte, Águas Claras, Brasília - DF</t>
         </is>
       </c>
       <c r="B350" t="n">
-        <v>1300000</v>
+        <v>1399000</v>
       </c>
       <c r="C350" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D350" t="n">
-        <v>0.2664786477687058</v>
+        <v>1.211</v>
+      </c>
+      <c r="E350" t="n">
+        <v>69</v>
+      </c>
+      <c r="F350" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>Quadra 102, Norte, Águas Claras, Brasília - DF</t>
+          <t>Quadra 105, Norte, Águas Claras, Brasília - DF</t>
         </is>
       </c>
       <c r="B351" t="n">
-        <v>1399000</v>
+        <v>1265226</v>
       </c>
       <c r="C351" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D351" t="n">
-        <v>1.211</v>
+        <v>0.6184622468080472</v>
+      </c>
+      <c r="E351" t="n">
+        <v>84</v>
+      </c>
+      <c r="F351" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>Quadra 105, Norte, Águas Claras, Brasília - DF</t>
+          <t>Rua 13, Norte, Águas Claras, Brasília - DF</t>
         </is>
       </c>
       <c r="B352" t="n">
-        <v>1265226</v>
+        <v>1730000</v>
       </c>
       <c r="C352" t="n">
         <v>3</v>
       </c>
       <c r="D352" t="n">
-        <v>0.6184622468080472</v>
+        <v>0.768</v>
+      </c>
+      <c r="E352" t="n">
+        <v>110</v>
+      </c>
+      <c r="F352" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>Rua 13, Norte, Águas Claras, Brasília - DF</t>
+          <t>Quadra 102, Norte, Águas Claras, Brasília - DF</t>
         </is>
       </c>
       <c r="B353" t="n">
-        <v>1730000</v>
+        <v>1540000</v>
       </c>
       <c r="C353" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D353" t="n">
-        <v>0.768</v>
+        <v>1.505</v>
+      </c>
+      <c r="E353" t="n">
+        <v>69</v>
+      </c>
+      <c r="F353" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>Quadra 102, Norte, Águas Claras, Brasília - DF</t>
+          <t>Avenida Sibipiruna, Sul, Águas Claras, Brasília - DF</t>
         </is>
       </c>
       <c r="B354" t="n">
-        <v>1540000</v>
+        <v>1667000</v>
       </c>
       <c r="C354" t="n">
         <v>4</v>
       </c>
       <c r="D354" t="n">
-        <v>1.505</v>
+        <v>0.279</v>
+      </c>
+      <c r="E354" t="n">
+        <v>54</v>
+      </c>
+      <c r="F354" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>Avenida Sibipiruna, Sul, Águas Claras, Brasília - DF</t>
+          <t>Rua 18, Sul, Águas Claras, Brasília - DF</t>
         </is>
       </c>
       <c r="B355" t="n">
-        <v>1667000</v>
+        <v>1250000</v>
       </c>
       <c r="C355" t="n">
         <v>4</v>
       </c>
       <c r="D355" t="n">
-        <v>0.279</v>
-      </c>
-    </row>
-    <row r="356">
-      <c r="A356" t="inlineStr">
-        <is>
-          <t>Rua 18, Sul, Águas Claras, Brasília - DF</t>
-        </is>
-      </c>
-      <c r="B356" t="n">
-        <v>1250000</v>
-      </c>
-      <c r="C356" t="n">
-        <v>4</v>
-      </c>
-      <c r="D356" t="n">
         <v>1.036610664272785</v>
+      </c>
+      <c r="E355" t="n">
+        <v>112</v>
+      </c>
+      <c r="F355" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
